--- a/part3/tables-3/dom_validty_SWB_part-3.xlsx
+++ b/part3/tables-3/dom_validty_SWB_part-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="17">
   <si>
     <t>Test ID</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>['hb', 'Xr', 'wb', 'Parapet', 'parapet', 'delta_x', 'hr', 'Wrb']</t>
+  </si>
+  <si>
+    <t>['hb', 'Xr', 'wb', 'Parapet', 'parapet', 'hr', 'Wrb']</t>
+  </si>
+  <si>
+    <t>['mmm', 'hb', 'Xr', 'wb', 'delta_x', 'hr', 'Wrb']</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,3285 +450,3470 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.000917</v>
+        <v>0.000834</v>
       </c>
       <c r="D2">
-        <v>0.001082</v>
+        <v>0.0005820000000000001</v>
       </c>
       <c r="F2">
-        <v>-0.180538</v>
+        <v>0.301823</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.000272</v>
+        <v>0.000247</v>
       </c>
       <c r="D3">
-        <v>0.000188</v>
+        <v>0.000222</v>
       </c>
       <c r="F3">
-        <v>0.308087</v>
+        <v>0.103078</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>2</v>
+        <v>1004</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>4.5E-05</v>
+        <v>4.1E-05</v>
       </c>
       <c r="D4">
-        <v>4E-05</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="F4">
-        <v>0.099538</v>
+        <v>-1.07844</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>4</v>
+        <v>1006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00156</v>
+        <v>0.001419</v>
       </c>
       <c r="D5">
-        <v>0.00154</v>
+        <v>0.000782</v>
       </c>
       <c r="F5">
-        <v>0.013273</v>
+        <v>0.448731</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>5</v>
+        <v>1007</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.000711</v>
+        <v>0.000647</v>
       </c>
       <c r="D6">
-        <v>0.000369</v>
+        <v>0.000407</v>
       </c>
       <c r="F6">
-        <v>0.480754</v>
+        <v>0.371122</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>6</v>
+        <v>1008</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.000225</v>
+        <v>0.000204</v>
       </c>
       <c r="D7">
-        <v>0.000126</v>
+        <v>0.000201</v>
       </c>
       <c r="F7">
-        <v>0.438039</v>
+        <v>0.018907</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>7</v>
+        <v>1009</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>3E-05</v>
+        <v>2.7E-05</v>
       </c>
       <c r="D8">
-        <v>1.7E-05</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F8">
-        <v>0.438218</v>
+        <v>-2.569768</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>9</v>
+        <v>1011</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.001331</v>
+        <v>0.00121</v>
       </c>
       <c r="D9">
-        <v>0.000869</v>
+        <v>0.000851</v>
       </c>
       <c r="F9">
-        <v>0.347023</v>
+        <v>0.296847</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>10</v>
+        <v>1012</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0.000426</v>
+        <v>0.000387</v>
       </c>
       <c r="D10">
-        <v>0.000168</v>
+        <v>0.000362</v>
       </c>
       <c r="F10">
-        <v>0.6058750000000001</v>
+        <v>0.065291</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>11</v>
+        <v>1013</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>7.8E-05</v>
+        <v>7.1E-05</v>
       </c>
       <c r="D11">
-        <v>3.4E-05</v>
+        <v>0.000174</v>
       </c>
       <c r="F11">
-        <v>0.566797</v>
+        <v>-1.466324</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>14</v>
+        <v>1016</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12">
-        <v>0.000644</v>
+        <v>0.000586</v>
       </c>
       <c r="D12">
-        <v>0.00021</v>
+        <v>0.000442</v>
       </c>
       <c r="F12">
-        <v>0.673856</v>
+        <v>0.246098</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>16</v>
+        <v>1018</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13">
-        <v>2.2E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="D13">
-        <v>1.5E-05</v>
+        <v>0.000132</v>
       </c>
       <c r="F13">
-        <v>0.324999</v>
+        <v>-5.577819</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18</v>
+        <v>1020</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0.001314</v>
+        <v>0.001194</v>
       </c>
       <c r="D14">
-        <v>0.000352</v>
+        <v>0.000634</v>
       </c>
       <c r="F14">
-        <v>0.732216</v>
+        <v>0.469345</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19</v>
+        <v>1021</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>0.000406</v>
+        <v>0.000369</v>
       </c>
       <c r="D15">
-        <v>9.8E-05</v>
+        <v>0.000358</v>
       </c>
       <c r="F15">
-        <v>0.758202</v>
+        <v>0.02924</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20</v>
+        <v>1022</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>8.2E-05</v>
+        <v>7.4E-05</v>
       </c>
       <c r="D16">
-        <v>3E-05</v>
+        <v>0.000205</v>
       </c>
       <c r="F16">
-        <v>0.629166</v>
+        <v>-1.756789</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>22</v>
+        <v>1024</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>0.001752</v>
+        <v>0.001593</v>
       </c>
       <c r="D17">
-        <v>0.000678</v>
+        <v>0.001029</v>
       </c>
       <c r="F17">
-        <v>0.613081</v>
+        <v>0.354197</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>23</v>
+        <v>1025</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>0.000697</v>
+        <v>0.000633</v>
       </c>
       <c r="D18">
-        <v>0.000229</v>
+        <v>0.000621</v>
       </c>
       <c r="F18">
-        <v>0.671975</v>
+        <v>0.01977</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>24</v>
+        <v>1026</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>0.000148</v>
+        <v>0.000134</v>
       </c>
       <c r="D19">
-        <v>8.500000000000001E-05</v>
+        <v>0.000381</v>
       </c>
       <c r="F19">
-        <v>0.424342</v>
+        <v>-1.838585</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>25</v>
+        <v>1027</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>3.6E-05</v>
+        <v>3.3E-05</v>
       </c>
       <c r="D20">
-        <v>3.4E-05</v>
+        <v>0.00022</v>
       </c>
       <c r="F20">
-        <v>0.063086</v>
+        <v>-5.696382</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>27</v>
+        <v>1029</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0.001121</v>
+        <v>0.001019</v>
       </c>
       <c r="D21">
-        <v>0.001629</v>
+        <v>0.000541</v>
       </c>
       <c r="F21">
-        <v>-0.453851</v>
+        <v>0.468762</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>28</v>
+        <v>1030</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>0.000419</v>
+        <v>0.000381</v>
       </c>
       <c r="D22">
-        <v>0.000265</v>
+        <v>0.000198</v>
       </c>
       <c r="F22">
-        <v>0.367021</v>
+        <v>0.48051</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>31</v>
+        <v>1033</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0.002134</v>
+        <v>0.00194</v>
       </c>
       <c r="D23">
-        <v>0.002948</v>
+        <v>0.000877</v>
       </c>
       <c r="F23">
-        <v>-0.381876</v>
+        <v>0.548068</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>32</v>
+        <v>1034</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>0.001124</v>
+        <v>0.001022</v>
       </c>
       <c r="D24">
-        <v>0.000634</v>
+        <v>0.000418</v>
       </c>
       <c r="F24">
-        <v>0.436548</v>
+        <v>0.590714</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>33</v>
+        <v>1035</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>0.000499</v>
+        <v>0.000454</v>
       </c>
       <c r="D25">
-        <v>9.8E-05</v>
+        <v>0.000189</v>
       </c>
       <c r="F25">
-        <v>0.802906</v>
+        <v>0.584194</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>34</v>
+        <v>1036</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>0.000209</v>
+        <v>0.00019</v>
       </c>
       <c r="D26">
-        <v>1.8E-05</v>
+        <v>8.6E-05</v>
       </c>
       <c r="F26">
-        <v>0.915236</v>
+        <v>0.546872</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>35</v>
+        <v>1037</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>0.003423</v>
+        <v>0.003112</v>
       </c>
       <c r="D27">
-        <v>0.00399</v>
+        <v>0.001584</v>
       </c>
       <c r="F27">
-        <v>-0.165752</v>
+        <v>0.490786</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>36</v>
+        <v>1038</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>0.00157</v>
+        <v>0.001427</v>
       </c>
       <c r="D28">
-        <v>0.0009389999999999999</v>
+        <v>0.000697</v>
       </c>
       <c r="F28">
-        <v>0.402088</v>
+        <v>0.511916</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>37</v>
+        <v>1039</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29">
-        <v>0.000665</v>
+        <v>0.000605</v>
       </c>
       <c r="D29">
-        <v>0.00018</v>
+        <v>0.000323</v>
       </c>
       <c r="F29">
-        <v>0.729171</v>
+        <v>0.466042</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>38</v>
+        <v>1040</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>0.000319</v>
+        <v>0.00029</v>
       </c>
       <c r="D30">
-        <v>2.8E-05</v>
+        <v>0.00015</v>
       </c>
       <c r="F30">
-        <v>0.912955</v>
+        <v>0.484215</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>39</v>
+        <v>1041</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>0.000149</v>
+        <v>0.000135</v>
       </c>
       <c r="D31">
-        <v>9E-06</v>
+        <v>0.000115</v>
       </c>
       <c r="F31">
-        <v>0.937458</v>
+        <v>0.150691</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>40</v>
+        <v>1042</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>0.002033</v>
+        <v>0.001848</v>
       </c>
       <c r="D32">
-        <v>0.001204</v>
+        <v>0.000831</v>
       </c>
       <c r="F32">
-        <v>0.40755</v>
+        <v>0.550424</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>41</v>
+        <v>1043</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33">
-        <v>0.001285</v>
+        <v>0.001168</v>
       </c>
       <c r="D33">
-        <v>0.000257</v>
+        <v>0.000428</v>
       </c>
       <c r="F33">
-        <v>0.799592</v>
+        <v>0.633467</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>42</v>
+        <v>1044</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34">
-        <v>0.000642</v>
+        <v>0.000584</v>
       </c>
       <c r="D34">
-        <v>5.4E-05</v>
+        <v>0.000227</v>
       </c>
       <c r="F34">
-        <v>0.916038</v>
+        <v>0.611473</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>43</v>
+        <v>1045</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35">
-        <v>0.000308</v>
+        <v>0.00028</v>
       </c>
       <c r="D35">
-        <v>1.4E-05</v>
+        <v>0.000137</v>
       </c>
       <c r="F35">
-        <v>0.955351</v>
+        <v>0.510757</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>44</v>
+        <v>1046</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36">
-        <v>0.002929</v>
+        <v>0.002662</v>
       </c>
       <c r="D36">
-        <v>0.001475</v>
+        <v>0.001128</v>
       </c>
       <c r="F36">
-        <v>0.496299</v>
+        <v>0.5763470000000001</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>45</v>
+        <v>1047</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37">
-        <v>0.001838</v>
+        <v>0.001671</v>
       </c>
       <c r="D37">
-        <v>0.00042</v>
+        <v>0.000628</v>
       </c>
       <c r="F37">
-        <v>0.771634</v>
+        <v>0.6239710000000001</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>46</v>
+        <v>1048</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38">
-        <v>0.000931</v>
+        <v>0.000846</v>
       </c>
       <c r="D38">
-        <v>0.000104</v>
+        <v>0.000349</v>
       </c>
       <c r="F38">
-        <v>0.888565</v>
+        <v>0.587114</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>47</v>
+        <v>1049</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39">
-        <v>0.000358</v>
+        <v>0.000325</v>
       </c>
       <c r="D39">
-        <v>2.6E-05</v>
+        <v>0.000198</v>
       </c>
       <c r="F39">
-        <v>0.927454</v>
+        <v>0.391101</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>48</v>
+        <v>1050</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40">
-        <v>0.00388</v>
+        <v>0.003527</v>
       </c>
       <c r="D40">
-        <v>0.002804</v>
+        <v>0.001741</v>
       </c>
       <c r="F40">
-        <v>0.27736</v>
+        <v>0.5062680000000001</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>49</v>
+        <v>1051</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0.002452</v>
+        <v>0.002229</v>
       </c>
       <c r="D41">
-        <v>0.000876</v>
+        <v>0.001043</v>
       </c>
       <c r="F41">
-        <v>0.642925</v>
+        <v>0.532146</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>50</v>
+        <v>1052</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42">
-        <v>0.001478</v>
+        <v>0.001344</v>
       </c>
       <c r="D42">
-        <v>0.000268</v>
+        <v>0.000634</v>
       </c>
       <c r="F42">
-        <v>0.818421</v>
+        <v>0.528386</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>51</v>
+        <v>1053</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43">
-        <v>0.00057</v>
+        <v>0.000518</v>
       </c>
       <c r="D43">
-        <v>7.6E-05</v>
+        <v>0.000361</v>
       </c>
       <c r="F43">
-        <v>0.866519</v>
+        <v>0.304162</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>53</v>
+        <v>1055</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>0.000102</v>
+        <v>9.3E-05</v>
       </c>
       <c r="D44">
-        <v>0.000352</v>
+        <v>7.9E-05</v>
       </c>
       <c r="F44">
-        <v>-2.448099</v>
+        <v>0.151916</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>54</v>
+        <v>1056</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>1.8E-05</v>
+        <v>1.6E-05</v>
       </c>
       <c r="D45">
-        <v>6.9E-05</v>
+        <v>3.5E-05</v>
       </c>
       <c r="F45">
-        <v>-2.819987</v>
+        <v>-1.151853</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>57</v>
+        <v>1059</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>0.000256</v>
+        <v>0.000233</v>
       </c>
       <c r="D46">
-        <v>0.000247</v>
+        <v>0.000169</v>
       </c>
       <c r="F46">
-        <v>0.037425</v>
+        <v>0.276232</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>58</v>
+        <v>1060</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>0.000106</v>
+        <v>9.6E-05</v>
       </c>
       <c r="D47">
-        <v>0.000125</v>
+        <v>8.899999999999999E-05</v>
       </c>
       <c r="F47">
-        <v>-0.179246</v>
+        <v>0.073425</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>59</v>
+        <v>1061</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>2.7E-05</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D48">
-        <v>1.1E-05</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F48">
-        <v>0.602967</v>
+        <v>-1.1577</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>60</v>
+        <v>1062</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>9E-06</v>
+        <v>8E-06</v>
       </c>
       <c r="D49">
-        <v>2E-06</v>
+        <v>3.5E-05</v>
       </c>
       <c r="F49">
-        <v>0.750182</v>
+        <v>-3.386609</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>61</v>
+        <v>1063</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>0.0005509999999999999</v>
+        <v>0.000501</v>
       </c>
       <c r="D50">
-        <v>0.000441</v>
+        <v>0.000408</v>
       </c>
       <c r="F50">
-        <v>0.200275</v>
+        <v>0.186432</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>62</v>
+        <v>1064</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>0.000184</v>
+        <v>0.000167</v>
       </c>
       <c r="D51">
-        <v>9.6E-05</v>
+        <v>0.000179</v>
       </c>
       <c r="F51">
-        <v>0.475217</v>
+        <v>-0.070162</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>63</v>
+        <v>1065</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>4.8E-05</v>
+        <v>4.4E-05</v>
       </c>
       <c r="D52">
-        <v>1.9E-05</v>
+        <v>9.6E-05</v>
       </c>
       <c r="F52">
-        <v>0.606826</v>
+        <v>-1.194414</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>64</v>
+        <v>1066</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>1.1E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="D53">
-        <v>3E-06</v>
+        <v>5.8E-05</v>
       </c>
       <c r="F53">
-        <v>0.7367050000000001</v>
+        <v>-4.843899</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>66</v>
+        <v>1068</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>0.000305</v>
+        <v>0.000277</v>
       </c>
       <c r="D54">
-        <v>0.000116</v>
+        <v>0.000223</v>
       </c>
       <c r="F54">
-        <v>0.620112</v>
+        <v>0.196818</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>67</v>
+        <v>1069</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55">
-        <v>0.000123</v>
+        <v>0.000112</v>
       </c>
       <c r="D55">
-        <v>2.9E-05</v>
+        <v>0.00013</v>
       </c>
       <c r="F55">
-        <v>0.766589</v>
+        <v>-0.161775</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>68</v>
+        <v>1070</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56">
-        <v>3.9E-05</v>
+        <v>3.5E-05</v>
       </c>
       <c r="D56">
-        <v>6E-06</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="F56">
-        <v>0.833734</v>
+        <v>-1.420481</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>69</v>
+        <v>1071</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
       </c>
       <c r="C57">
-        <v>1.1E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="D57">
-        <v>2E-06</v>
+        <v>6.600000000000001E-05</v>
       </c>
       <c r="F57">
-        <v>0.800349</v>
+        <v>-5.848563</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>70</v>
+        <v>1072</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>0.000633</v>
+        <v>0.000575</v>
       </c>
       <c r="D58">
-        <v>0.000176</v>
+        <v>0.000336</v>
       </c>
       <c r="F58">
-        <v>0.7213889999999999</v>
+        <v>0.416185</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>71</v>
+        <v>1073</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59">
-        <v>0.000229</v>
+        <v>0.000209</v>
       </c>
       <c r="D59">
-        <v>5.1E-05</v>
+        <v>0.000203</v>
       </c>
       <c r="F59">
-        <v>0.776325</v>
+        <v>0.024718</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>72</v>
+        <v>1074</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60">
-        <v>7.9E-05</v>
+        <v>7.2E-05</v>
       </c>
       <c r="D60">
-        <v>1.4E-05</v>
+        <v>0.000131</v>
       </c>
       <c r="F60">
-        <v>0.826843</v>
+        <v>-0.822558</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>73</v>
+        <v>1075</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61">
-        <v>1.2E-05</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D61">
-        <v>4E-06</v>
+        <v>9.1E-05</v>
       </c>
       <c r="F61">
-        <v>0.652312</v>
+        <v>-7.125107</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>74</v>
+        <v>1076</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62">
-        <v>0.0008</v>
+        <v>0.000727</v>
       </c>
       <c r="D62">
-        <v>0.000397</v>
+        <v>0.000581</v>
       </c>
       <c r="F62">
-        <v>0.503046</v>
+        <v>0.200518</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>75</v>
+        <v>1077</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63">
-        <v>0.000359</v>
+        <v>0.000327</v>
       </c>
       <c r="D63">
-        <v>0.00013</v>
+        <v>0.000367</v>
       </c>
       <c r="F63">
-        <v>0.638255</v>
+        <v>-0.123921</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>76</v>
+        <v>1078</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64">
-        <v>0.000133</v>
+        <v>0.000121</v>
       </c>
       <c r="D64">
-        <v>4.3E-05</v>
+        <v>0.000244</v>
       </c>
       <c r="F64">
-        <v>0.67815</v>
+        <v>-1.019156</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>77</v>
+        <v>1079</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65">
-        <v>3.8E-05</v>
+        <v>3.5E-05</v>
       </c>
       <c r="D65">
-        <v>1.4E-05</v>
+        <v>0.000159</v>
       </c>
       <c r="F65">
-        <v>0.624814</v>
+        <v>-3.586588</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>79</v>
+        <v>1081</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>7.1E-05</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="D66">
-        <v>0.000349</v>
+        <v>7.9E-05</v>
       </c>
       <c r="F66">
-        <v>-3.8902</v>
+        <v>-0.21156</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>83</v>
+        <v>1085</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>0.000231</v>
+        <v>0.00021</v>
       </c>
       <c r="D67">
-        <v>0.000245</v>
+        <v>0.000169</v>
       </c>
       <c r="F67">
-        <v>-0.062399</v>
+        <v>0.195807</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>84</v>
+        <v>1086</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>7.7E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="D68">
-        <v>0.000124</v>
+        <v>8.899999999999999E-05</v>
       </c>
       <c r="F68">
-        <v>-0.610827</v>
+        <v>-0.274051</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>85</v>
+        <v>1087</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>1.2E-05</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D69">
-        <v>1.1E-05</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F69">
-        <v>0.108649</v>
+        <v>-3.854861</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>87</v>
+        <v>1089</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>0.000535</v>
+        <v>0.000487</v>
       </c>
       <c r="D70">
-        <v>0.000438</v>
+        <v>0.000408</v>
       </c>
       <c r="F70">
-        <v>0.182358</v>
+        <v>0.162141</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>88</v>
+        <v>1090</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>0.000152</v>
+        <v>0.000138</v>
       </c>
       <c r="D71">
-        <v>9.6E-05</v>
+        <v>0.000179</v>
       </c>
       <c r="F71">
-        <v>0.367457</v>
+        <v>-0.295468</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>89</v>
+        <v>1091</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>2.7E-05</v>
+        <v>2.4E-05</v>
       </c>
       <c r="D72">
-        <v>1.9E-05</v>
+        <v>9.6E-05</v>
       </c>
       <c r="F72">
-        <v>0.29697</v>
+        <v>-2.937816</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>90</v>
+        <v>1092</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73">
         <v>2E-06</v>
       </c>
       <c r="D73">
-        <v>3E-06</v>
+        <v>5.8E-05</v>
       </c>
       <c r="F73">
-        <v>-0.192728</v>
+        <v>-25.715121</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>92</v>
+        <v>1094</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>0.000246</v>
+        <v>0.000223</v>
       </c>
       <c r="D74">
-        <v>0.000115</v>
+        <v>0.000223</v>
       </c>
       <c r="F74">
-        <v>0.530016</v>
+        <v>0.002101</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>93</v>
+        <v>1095</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>8.500000000000001E-05</v>
+        <v>7.7E-05</v>
       </c>
       <c r="D75">
-        <v>2.9E-05</v>
+        <v>0.00013</v>
       </c>
       <c r="F75">
-        <v>0.661901</v>
+        <v>-0.689865</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>94</v>
+        <v>1096</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>1.5E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D76">
-        <v>6E-06</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="F76">
-        <v>0.562423</v>
+        <v>-5.416509</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>96</v>
+        <v>1098</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77">
-        <v>0.0005509999999999999</v>
+        <v>0.000501</v>
       </c>
       <c r="D77">
-        <v>0.000175</v>
+        <v>0.000336</v>
       </c>
       <c r="F77">
-        <v>0.681447</v>
+        <v>0.329398</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>97</v>
+        <v>1099</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78">
-        <v>0.000179</v>
+        <v>0.000163</v>
       </c>
       <c r="D78">
-        <v>5.1E-05</v>
+        <v>0.000203</v>
       </c>
       <c r="F78">
-        <v>0.715184</v>
+        <v>-0.248367</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>98</v>
+        <v>1100</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79">
-        <v>3.4E-05</v>
+        <v>3.1E-05</v>
       </c>
       <c r="D79">
-        <v>1.4E-05</v>
+        <v>0.000131</v>
       </c>
       <c r="F79">
-        <v>0.606425</v>
+        <v>-3.17576</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>100</v>
+        <v>1102</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
       </c>
       <c r="C80">
-        <v>0.000729</v>
+        <v>0.000662</v>
       </c>
       <c r="D80">
-        <v>0.000396</v>
+        <v>0.000581</v>
       </c>
       <c r="F80">
-        <v>0.456508</v>
+        <v>0.122387</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>101</v>
+        <v>1103</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
       </c>
       <c r="C81">
-        <v>0.000298</v>
+        <v>0.000271</v>
       </c>
       <c r="D81">
-        <v>0.000129</v>
+        <v>0.000367</v>
       </c>
       <c r="F81">
-        <v>0.566348</v>
+        <v>-0.355678</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>102</v>
+        <v>1104</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>9.500000000000001E-05</v>
+        <v>8.6E-05</v>
       </c>
       <c r="D82">
-        <v>4.2E-05</v>
+        <v>0.000244</v>
       </c>
       <c r="F82">
-        <v>0.553386</v>
+        <v>-1.826828</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>103</v>
+        <v>1105</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
       </c>
       <c r="C83">
-        <v>1.9E-05</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D83">
-        <v>1.4E-05</v>
+        <v>0.000159</v>
       </c>
       <c r="F83">
-        <v>0.258533</v>
+        <v>-8.171110000000001</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>104</v>
+        <v>1106</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
       </c>
       <c r="C84">
-        <v>0.000194</v>
+        <v>0.000176</v>
       </c>
       <c r="D84">
-        <v>0.000558</v>
+        <v>0.000321</v>
       </c>
       <c r="F84">
-        <v>-1.87797</v>
+        <v>-0.820542</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>105</v>
+        <v>1107</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>3.5E-05</v>
+        <v>3.2E-05</v>
       </c>
       <c r="D85">
-        <v>0.000112</v>
+        <v>0.000127</v>
       </c>
       <c r="F85">
-        <v>-2.243977</v>
+        <v>-3.0317</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>108</v>
+        <v>1110</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86">
-        <v>0.00044</v>
+        <v>0.0004</v>
       </c>
       <c r="D86">
-        <v>0.000743</v>
+        <v>0.000458</v>
       </c>
       <c r="F86">
-        <v>-0.686045</v>
+        <v>-0.143531</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>109</v>
+        <v>1111</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>0.000179</v>
+        <v>0.000163</v>
       </c>
       <c r="D87">
-        <v>0.000168</v>
+        <v>0.000251</v>
       </c>
       <c r="F87">
-        <v>0.0644</v>
+        <v>-0.540285</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>110</v>
+        <v>1112</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>4.5E-05</v>
+        <v>4.1E-05</v>
       </c>
       <c r="D88">
-        <v>7.1E-05</v>
+        <v>0.000129</v>
       </c>
       <c r="F88">
-        <v>-0.59755</v>
+        <v>-2.179963</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>111</v>
+        <v>1113</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89">
-        <v>6E-06</v>
+        <v>5E-06</v>
       </c>
       <c r="D89">
-        <v>8E-06</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F89">
-        <v>-0.325413</v>
+        <v>-11.738058</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>113</v>
+        <v>1115</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>0.00044</v>
+        <v>0.0004</v>
       </c>
       <c r="D90">
-        <v>0.000432</v>
+        <v>0.000568</v>
       </c>
       <c r="F90">
-        <v>0.01742</v>
+        <v>-0.421079</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>114</v>
+        <v>1116</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>0.00012</v>
+        <v>0.000109</v>
       </c>
       <c r="D91">
-        <v>8.2E-05</v>
+        <v>0.000245</v>
       </c>
       <c r="F91">
-        <v>0.316813</v>
+        <v>-1.245601</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>115</v>
+        <v>1117</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>1.4E-05</v>
+        <v>1.2E-05</v>
       </c>
       <c r="D92">
-        <v>1.7E-05</v>
+        <v>0.000124</v>
       </c>
       <c r="F92">
-        <v>-0.209601</v>
+        <v>-8.949883</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>118</v>
+        <v>1120</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>0.000208</v>
+        <v>0.000189</v>
       </c>
       <c r="D93">
-        <v>0.000103</v>
+        <v>0.000301</v>
       </c>
       <c r="F93">
-        <v>0.503732</v>
+        <v>-0.589132</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>119</v>
+        <v>1121</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94">
-        <v>6.2E-05</v>
+        <v>5.6E-05</v>
       </c>
       <c r="D94">
-        <v>2.7E-05</v>
+        <v>0.000168</v>
       </c>
       <c r="F94">
-        <v>0.563416</v>
+        <v>-1.993889</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>120</v>
+        <v>1122</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>9E-06</v>
+        <v>8E-06</v>
       </c>
       <c r="D95">
-        <v>8E-06</v>
+        <v>0.000101</v>
       </c>
       <c r="F95">
-        <v>0.145499</v>
+        <v>-11.434881</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>122</v>
+        <v>1124</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>0.000514</v>
+        <v>0.000467</v>
       </c>
       <c r="D96">
-        <v>0.000182</v>
+        <v>0.000444</v>
       </c>
       <c r="F96">
-        <v>0.645504</v>
+        <v>0.048496</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>123</v>
+        <v>1125</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>0.000158</v>
+        <v>0.000143</v>
       </c>
       <c r="D97">
-        <v>5.2E-05</v>
+        <v>0.000258</v>
       </c>
       <c r="F97">
-        <v>0.671488</v>
+        <v>-0.802333</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>124</v>
+        <v>1126</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>2.9E-05</v>
+        <v>2.7E-05</v>
       </c>
       <c r="D98">
-        <v>1.6E-05</v>
+        <v>0.000156</v>
       </c>
       <c r="F98">
-        <v>0.443947</v>
+        <v>-4.813389</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>126</v>
+        <v>1128</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>0.000708</v>
+        <v>0.000644</v>
       </c>
       <c r="D99">
-        <v>0.000381</v>
+        <v>0.000744</v>
       </c>
       <c r="F99">
-        <v>0.462148</v>
+        <v>-0.155553</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>127</v>
+        <v>1129</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100">
-        <v>0.000304</v>
+        <v>0.000277</v>
       </c>
       <c r="D100">
-        <v>0.00013</v>
+        <v>0.000456</v>
       </c>
       <c r="F100">
-        <v>0.571623</v>
+        <v>-0.649709</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>128</v>
+        <v>1130</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>6.999999999999999E-05</v>
+        <v>6.3E-05</v>
       </c>
       <c r="D101">
-        <v>5E-05</v>
+        <v>0.00029</v>
       </c>
       <c r="F101">
-        <v>0.286718</v>
+        <v>-3.571979</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>129</v>
+        <v>1131</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C102">
-        <v>1E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="D102">
-        <v>2.1E-05</v>
+        <v>0.000175</v>
       </c>
       <c r="F102">
-        <v>-1.105161</v>
+        <v>-18.692263</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>130</v>
+        <v>1132</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C103">
-        <v>0.000214</v>
+        <v>0.000195</v>
       </c>
       <c r="D103">
-        <v>0.000562</v>
+        <v>0.000321</v>
       </c>
       <c r="F103">
-        <v>-1.626366</v>
+        <v>-0.647145</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>131</v>
+        <v>1133</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C104">
-        <v>4.5E-05</v>
+        <v>4.1E-05</v>
       </c>
       <c r="D104">
-        <v>0.000113</v>
+        <v>0.000127</v>
       </c>
       <c r="F104">
-        <v>-1.526328</v>
+        <v>-2.115384</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>134</v>
+        <v>1136</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C105">
-        <v>0.000469</v>
+        <v>0.000426</v>
       </c>
       <c r="D105">
-        <v>0.00075</v>
+        <v>0.000458</v>
       </c>
       <c r="F105">
-        <v>-0.601224</v>
+        <v>-0.07491200000000001</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>135</v>
+        <v>1137</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C106">
-        <v>0.000205</v>
+        <v>0.000186</v>
       </c>
       <c r="D106">
-        <v>0.00017</v>
+        <v>0.000251</v>
       </c>
       <c r="F106">
-        <v>0.170689</v>
+        <v>-0.347742</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>136</v>
+        <v>1138</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C107">
-        <v>6.2E-05</v>
+        <v>5.6E-05</v>
       </c>
       <c r="D107">
-        <v>7.2E-05</v>
+        <v>0.000129</v>
       </c>
       <c r="F107">
-        <v>-0.166181</v>
+        <v>-1.300308</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>137</v>
+        <v>1139</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
       </c>
       <c r="C108">
-        <v>1.4E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D108">
-        <v>8E-06</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F108">
-        <v>0.422626</v>
+        <v>-4.478706</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>139</v>
+        <v>1141</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
       </c>
       <c r="C109">
-        <v>0.00048</v>
+        <v>0.000436</v>
       </c>
       <c r="D109">
-        <v>0.000436</v>
+        <v>0.000568</v>
       </c>
       <c r="F109">
-        <v>0.090047</v>
+        <v>-0.30265</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>140</v>
+        <v>1142</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C110">
-        <v>0.000128</v>
+        <v>0.000116</v>
       </c>
       <c r="D110">
-        <v>8.3E-05</v>
+        <v>0.000245</v>
       </c>
       <c r="F110">
-        <v>0.351776</v>
+        <v>-1.105242</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>141</v>
+        <v>1143</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C111">
-        <v>2.2E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="D111">
-        <v>1.7E-05</v>
+        <v>0.000124</v>
       </c>
       <c r="F111">
-        <v>0.235427</v>
+        <v>-5.21865</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>144</v>
+        <v>1146</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C112">
-        <v>0.000231</v>
+        <v>0.00021</v>
       </c>
       <c r="D112">
-        <v>0.000105</v>
+        <v>0.000301</v>
       </c>
       <c r="F112">
-        <v>0.546581</v>
+        <v>-0.435339</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>145</v>
+        <v>1147</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C113">
-        <v>8.2E-05</v>
+        <v>7.4E-05</v>
       </c>
       <c r="D113">
-        <v>2.7E-05</v>
+        <v>0.000168</v>
       </c>
       <c r="F113">
-        <v>0.666768</v>
+        <v>-1.25953</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>146</v>
+        <v>1148</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
       </c>
       <c r="C114">
-        <v>1.6E-05</v>
+        <v>1.4E-05</v>
       </c>
       <c r="D114">
-        <v>8E-06</v>
+        <v>0.000101</v>
       </c>
       <c r="F114">
-        <v>0.514335</v>
+        <v>-5.994593</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>148</v>
+        <v>1150</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>0.000529</v>
+        <v>0.00048</v>
       </c>
       <c r="D115">
-        <v>0.000184</v>
+        <v>0.000444</v>
       </c>
       <c r="F115">
-        <v>0.651802</v>
+        <v>0.07530199999999999</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>149</v>
+        <v>1151</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C116">
-        <v>0.000179</v>
+        <v>0.000163</v>
       </c>
       <c r="D116">
-        <v>5.2E-05</v>
+        <v>0.000258</v>
       </c>
       <c r="F116">
-        <v>0.707745</v>
+        <v>-0.586047</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>150</v>
+        <v>1152</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C117">
-        <v>3.9E-05</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D117">
-        <v>1.7E-05</v>
+        <v>0.000156</v>
       </c>
       <c r="F117">
-        <v>0.578751</v>
+        <v>-3.360027</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>152</v>
+        <v>1154</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>0.000749</v>
+        <v>0.000681</v>
       </c>
       <c r="D118">
-        <v>0.000384</v>
+        <v>0.000744</v>
       </c>
       <c r="F118">
-        <v>0.48739</v>
+        <v>-0.09236</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>153</v>
+        <v>1155</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
       </c>
       <c r="C119">
-        <v>0.000311</v>
+        <v>0.000282</v>
       </c>
       <c r="D119">
-        <v>0.000132</v>
+        <v>0.000456</v>
       </c>
       <c r="F119">
-        <v>0.576291</v>
+        <v>-0.616036</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>154</v>
+        <v>1156</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C120">
-        <v>8.2E-05</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="D120">
-        <v>5E-05</v>
+        <v>0.00029</v>
       </c>
       <c r="F120">
-        <v>0.390619</v>
+        <v>-2.868587</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>155</v>
+        <v>1157</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>1.3E-05</v>
+        <v>1.2E-05</v>
       </c>
       <c r="D121">
-        <v>2.1E-05</v>
+        <v>0.000175</v>
       </c>
       <c r="F121">
-        <v>-0.591282</v>
+        <v>-13.76916</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>157</v>
+        <v>1158</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>1.8E-05</v>
+        <v>0.00013</v>
       </c>
       <c r="D122">
-        <v>0.000155</v>
+        <v>0.000321</v>
       </c>
       <c r="F122">
-        <v>-7.454832</v>
+        <v>-1.470541</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>160</v>
+        <v>1159</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
       </c>
       <c r="C123">
-        <v>0.000375</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D123">
-        <v>0.000753</v>
+        <v>0.000127</v>
       </c>
       <c r="F123">
-        <v>-1.008719</v>
+        <v>-6.615339</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>161</v>
+        <v>1162</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C124">
-        <v>0.000137</v>
+        <v>0.000341</v>
       </c>
       <c r="D124">
-        <v>0.000171</v>
+        <v>0.000458</v>
       </c>
       <c r="F124">
-        <v>-0.248061</v>
+        <v>-0.343624</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>162</v>
+        <v>1163</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>1.7E-05</v>
+        <v>0.000124</v>
       </c>
       <c r="D125">
-        <v>7.2E-05</v>
+        <v>0.000251</v>
       </c>
       <c r="F125">
-        <v>-3.374934</v>
+        <v>-1.021594</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>165</v>
+        <v>1164</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>0.000344</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D126">
-        <v>0.000438</v>
+        <v>0.000129</v>
       </c>
       <c r="F126">
-        <v>-0.2741</v>
+        <v>-7.585765</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>166</v>
+        <v>1167</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
       </c>
       <c r="C127">
-        <v>5.1E-05</v>
+        <v>0.000312</v>
       </c>
       <c r="D127">
-        <v>8.3E-05</v>
+        <v>0.000568</v>
       </c>
       <c r="F127">
-        <v>-0.617677</v>
+        <v>-0.817636</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>167</v>
+        <v>1168</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C128">
-        <v>5E-06</v>
+        <v>4.7E-05</v>
       </c>
       <c r="D128">
-        <v>1.7E-05</v>
+        <v>0.000245</v>
       </c>
       <c r="F128">
-        <v>-2.505348</v>
+        <v>-4.238474</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>170</v>
+        <v>1169</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C129">
-        <v>0.000112</v>
+        <v>4E-06</v>
       </c>
       <c r="D129">
-        <v>0.000105</v>
+        <v>0.000124</v>
       </c>
       <c r="F129">
-        <v>0.06085</v>
+        <v>-27.427914</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>171</v>
+        <v>1172</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C130">
-        <v>2.2E-05</v>
+        <v>0.000102</v>
       </c>
       <c r="D130">
-        <v>2.7E-05</v>
+        <v>0.000301</v>
       </c>
       <c r="F130">
-        <v>-0.215035</v>
+        <v>-1.966347</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>174</v>
+        <v>1173</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C131">
-        <v>0.000313</v>
+        <v>2E-05</v>
       </c>
       <c r="D131">
-        <v>0.000185</v>
+        <v>0.000168</v>
       </c>
       <c r="F131">
-        <v>0.409747</v>
+        <v>-7.216552</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>175</v>
+        <v>1176</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C132">
-        <v>6.1E-05</v>
+        <v>0.000284</v>
       </c>
       <c r="D132">
-        <v>5.2E-05</v>
+        <v>0.000444</v>
       </c>
       <c r="F132">
-        <v>0.145899</v>
+        <v>-0.563169</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>176</v>
+        <v>1177</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C133">
-        <v>6E-06</v>
+        <v>5.6E-05</v>
       </c>
       <c r="D133">
-        <v>1.7E-05</v>
+        <v>0.000258</v>
       </c>
       <c r="F133">
-        <v>-2.002775</v>
+        <v>-3.624886</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>178</v>
+        <v>1178</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
       </c>
       <c r="C134">
-        <v>0.0004929999999999999</v>
+        <v>5E-06</v>
       </c>
       <c r="D134">
-        <v>0.000385</v>
+        <v>0.000156</v>
       </c>
       <c r="F134">
-        <v>0.219053</v>
+        <v>-30.004468</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>179</v>
+        <v>1180</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
       </c>
       <c r="C135">
-        <v>0.000152</v>
+        <v>0.000448</v>
       </c>
       <c r="D135">
-        <v>0.000132</v>
+        <v>0.000744</v>
       </c>
       <c r="F135">
-        <v>0.133648</v>
+        <v>-0.661242</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>180</v>
+        <v>1181</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C136">
-        <v>1.6E-05</v>
+        <v>0.000138</v>
       </c>
       <c r="D136">
-        <v>5E-05</v>
+        <v>0.000456</v>
       </c>
       <c r="F136">
-        <v>-2.084381</v>
+        <v>-2.299392</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>182</v>
+        <v>1182</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C137">
-        <v>0.000133</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D137">
-        <v>0.000558</v>
+        <v>0.00029</v>
       </c>
       <c r="F137">
-        <v>-3.21</v>
+        <v>-18.553298</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>183</v>
+        <v>1184</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C138">
-        <v>1E-05</v>
+        <v>0.000121</v>
       </c>
       <c r="D138">
-        <v>0.000113</v>
+        <v>0.000321</v>
       </c>
       <c r="F138">
-        <v>-9.756569000000001</v>
+        <v>-1.660753</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>186</v>
+        <v>1185</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C139">
-        <v>0.000328</v>
+        <v>1E-05</v>
       </c>
       <c r="D139">
-        <v>0.000745</v>
+        <v>0.000127</v>
       </c>
       <c r="F139">
-        <v>-1.271326</v>
+        <v>-12.323788</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>187</v>
+        <v>1188</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
       </c>
       <c r="C140">
-        <v>9.399999999999999E-05</v>
+        <v>0.000298</v>
       </c>
       <c r="D140">
-        <v>0.000168</v>
+        <v>0.000458</v>
       </c>
       <c r="F140">
-        <v>-0.791934</v>
+        <v>-0.5355799999999999</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>188</v>
+        <v>1189</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C141">
-        <v>8E-06</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="D141">
-        <v>7.2E-05</v>
+        <v>0.000251</v>
       </c>
       <c r="F141">
-        <v>-7.668766</v>
+        <v>-1.940516</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>191</v>
+        <v>1190</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C142">
-        <v>0.000264</v>
+        <v>8E-06</v>
       </c>
       <c r="D142">
-        <v>0.000433</v>
+        <v>0.000129</v>
       </c>
       <c r="F142">
-        <v>-0.643111</v>
+        <v>-16.171622</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>192</v>
+        <v>1193</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C143">
-        <v>3.6E-05</v>
+        <v>0.00024</v>
       </c>
       <c r="D143">
-        <v>8.2E-05</v>
+        <v>0.000568</v>
       </c>
       <c r="F143">
-        <v>-1.305238</v>
+        <v>-1.368445</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>193</v>
+        <v>1194</v>
+      </c>
+      <c r="B144" t="s">
+        <v>14</v>
       </c>
       <c r="C144">
-        <v>7E-06</v>
+        <v>3.2E-05</v>
       </c>
       <c r="D144">
-        <v>1.7E-05</v>
+        <v>0.000245</v>
       </c>
       <c r="F144">
-        <v>-1.426146</v>
+        <v>-6.555526</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>196</v>
+        <v>1195</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
       </c>
       <c r="C145">
-        <v>8.899999999999999E-05</v>
+        <v>6E-06</v>
       </c>
       <c r="D145">
-        <v>0.000104</v>
+        <v>0.000124</v>
       </c>
       <c r="F145">
-        <v>-0.160517</v>
+        <v>-18.899628</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>197</v>
+        <v>1198</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C146">
-        <v>1.9E-05</v>
+        <v>8.1E-05</v>
       </c>
       <c r="D146">
-        <v>2.7E-05</v>
+        <v>0.000301</v>
       </c>
       <c r="F146">
-        <v>-0.458807</v>
+        <v>-2.707949</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>200</v>
+        <v>1199</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C147">
-        <v>0.000268</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D147">
-        <v>0.000183</v>
+        <v>0.000168</v>
       </c>
       <c r="F147">
-        <v>0.318709</v>
+        <v>-8.977283</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>201</v>
+        <v>1202</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C148">
-        <v>5.5E-05</v>
+        <v>0.000244</v>
       </c>
       <c r="D148">
-        <v>5.2E-05</v>
+        <v>0.000444</v>
       </c>
       <c r="F148">
-        <v>0.061308</v>
+        <v>-0.823704</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>204</v>
+        <v>1203</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
       </c>
       <c r="C149">
-        <v>0.000444</v>
+        <v>5E-05</v>
       </c>
       <c r="D149">
-        <v>0.000382</v>
+        <v>0.000258</v>
       </c>
       <c r="F149">
-        <v>0.140313</v>
+        <v>-4.138781</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>205</v>
+        <v>1206</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>0.000108</v>
+        <v>0.000403</v>
       </c>
       <c r="D150">
-        <v>0.000131</v>
+        <v>0.000744</v>
       </c>
       <c r="F150">
-        <v>-0.211296</v>
+        <v>-0.84378</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>206</v>
+        <v>1207</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C151">
-        <v>1.2E-05</v>
+        <v>9.8E-05</v>
       </c>
       <c r="D151">
-        <v>5E-05</v>
+        <v>0.000456</v>
       </c>
       <c r="F151">
-        <v>-3.165539</v>
+        <v>-3.657978</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>208</v>
+        <v>1208</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C152">
-        <v>0.000163</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D152">
-        <v>0.000558</v>
+        <v>0.00029</v>
       </c>
       <c r="F152">
-        <v>-2.418402</v>
+        <v>-25.663659</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>209</v>
+        <v>1210</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
       </c>
       <c r="C153">
-        <v>1.9E-05</v>
+        <v>0.000148</v>
       </c>
       <c r="D153">
-        <v>0.000113</v>
+        <v>0.000321</v>
       </c>
       <c r="F153">
-        <v>-4.863965</v>
+        <v>-1.161922</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>212</v>
+        <v>1211</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C154">
-        <v>0.000403</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D154">
-        <v>0.000745</v>
+        <v>0.000127</v>
       </c>
       <c r="F154">
-        <v>-0.847845</v>
+        <v>-6.26775</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>213</v>
+        <v>1214</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C155">
-        <v>0.000137</v>
+        <v>0.000366</v>
       </c>
       <c r="D155">
-        <v>0.000168</v>
+        <v>0.000458</v>
       </c>
       <c r="F155">
-        <v>-0.231444</v>
+        <v>-0.249921</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>214</v>
+        <v>1215</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C156">
-        <v>1.7E-05</v>
+        <v>0.000124</v>
       </c>
       <c r="D156">
-        <v>7.2E-05</v>
+        <v>0.000251</v>
       </c>
       <c r="F156">
-        <v>-3.332355</v>
+        <v>-1.021655</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>217</v>
+        <v>1216</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C157">
-        <v>0.000352</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D157">
-        <v>0.000433</v>
+        <v>0.000129</v>
       </c>
       <c r="F157">
-        <v>-0.231933</v>
+        <v>-7.586084</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>218</v>
+        <v>1219</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
       </c>
       <c r="C158">
-        <v>5.5E-05</v>
+        <v>0.00032</v>
       </c>
       <c r="D158">
-        <v>8.2E-05</v>
+        <v>0.000568</v>
       </c>
       <c r="F158">
-        <v>-0.497819</v>
+        <v>-0.776371</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>222</v>
+        <v>1220</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C159">
-        <v>0.000119</v>
+        <v>5E-05</v>
       </c>
       <c r="D159">
-        <v>0.000104</v>
+        <v>0.000245</v>
       </c>
       <c r="F159">
-        <v>0.129925</v>
+        <v>-3.911209</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>223</v>
+        <v>1224</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
       </c>
       <c r="C160">
-        <v>1.3E-05</v>
+        <v>0.000108</v>
       </c>
       <c r="D160">
-        <v>2.7E-05</v>
+        <v>0.000301</v>
       </c>
       <c r="F160">
-        <v>-1.041495</v>
+        <v>-1.781019</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>226</v>
+        <v>1225</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
       </c>
       <c r="C161">
-        <v>0.00035</v>
+        <v>1.2E-05</v>
       </c>
       <c r="D161">
-        <v>0.000183</v>
+        <v>0.000168</v>
       </c>
       <c r="F161">
-        <v>0.478333</v>
+        <v>-12.968517</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>227</v>
+        <v>1228</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C162">
-        <v>5.5E-05</v>
+        <v>0.000318</v>
       </c>
       <c r="D162">
-        <v>5.2E-05</v>
+        <v>0.000444</v>
       </c>
       <c r="F162">
-        <v>0.061667</v>
+        <v>-0.396908</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>228</v>
+        <v>1229</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C163">
-        <v>5E-06</v>
+        <v>5E-05</v>
       </c>
       <c r="D163">
-        <v>1.6E-05</v>
+        <v>0.000258</v>
       </c>
       <c r="F163">
-        <v>-2.342718</v>
+        <v>-4.138883</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>230</v>
+        <v>1230</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C164">
-        <v>0.00052</v>
+        <v>4E-06</v>
       </c>
       <c r="D164">
-        <v>0.000381</v>
+        <v>0.000156</v>
       </c>
       <c r="F164">
-        <v>0.26632</v>
+        <v>-33.880802</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>231</v>
+        <v>1232</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
       </c>
       <c r="C165">
-        <v>0.000139</v>
+        <v>0.000473</v>
       </c>
       <c r="D165">
-        <v>0.000131</v>
+        <v>0.000744</v>
       </c>
       <c r="F165">
-        <v>0.06432499999999999</v>
+        <v>-0.573981</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>232</v>
+        <v>1233</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
       </c>
       <c r="C166">
-        <v>1.7E-05</v>
+        <v>0.000127</v>
       </c>
       <c r="D166">
-        <v>5E-05</v>
+        <v>0.000456</v>
       </c>
       <c r="F166">
-        <v>-1.862582</v>
+        <v>-2.5994</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>234</v>
+        <v>1234</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C167">
-        <v>0.000101</v>
+        <v>1.6E-05</v>
       </c>
       <c r="D167">
-        <v>0.000562</v>
+        <v>0.00029</v>
       </c>
       <c r="F167">
-        <v>-4.545798</v>
+        <v>-17.331529</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>235</v>
+        <v>1236</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C168">
-        <v>1E-05</v>
+        <v>9.2E-05</v>
       </c>
       <c r="D168">
-        <v>0.000113</v>
+        <v>0.000321</v>
       </c>
       <c r="F168">
-        <v>-9.804599</v>
+        <v>-2.478089</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>238</v>
+        <v>1237</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C169">
-        <v>0.000286</v>
+        <v>1E-05</v>
       </c>
       <c r="D169">
-        <v>0.00075</v>
+        <v>0.000127</v>
       </c>
       <c r="F169">
-        <v>-1.623128</v>
+        <v>-12.323876</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>239</v>
+        <v>1240</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
       </c>
       <c r="C170">
-        <v>9.7E-05</v>
+        <v>0.00026</v>
       </c>
       <c r="D170">
-        <v>0.00017</v>
+        <v>0.000458</v>
       </c>
       <c r="F170">
-        <v>-0.7587429999999999</v>
+        <v>-0.760924</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>240</v>
+        <v>1241</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
       </c>
       <c r="C171">
-        <v>2.3E-05</v>
+        <v>8.8E-05</v>
       </c>
       <c r="D171">
-        <v>7.2E-05</v>
+        <v>0.000251</v>
       </c>
       <c r="F171">
-        <v>-2.109104</v>
+        <v>-1.858193</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>241</v>
+        <v>1242</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C172">
-        <v>1E-06</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D172">
-        <v>8E-06</v>
+        <v>0.000129</v>
       </c>
       <c r="F172">
-        <v>-6.159438</v>
+        <v>-5.132754</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>243</v>
+        <v>1243</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C173">
-        <v>0.000307</v>
+        <v>1E-06</v>
       </c>
       <c r="D173">
-        <v>0.000436</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F173">
-        <v>-0.420746</v>
+        <v>-66.93594899999999</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>244</v>
+        <v>1245</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
       </c>
       <c r="C174">
-        <v>4.7E-05</v>
+        <v>0.000279</v>
       </c>
       <c r="D174">
-        <v>8.3E-05</v>
+        <v>0.000568</v>
       </c>
       <c r="F174">
-        <v>-0.779451</v>
+        <v>-1.033879</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>245</v>
+        <v>1246</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
       </c>
       <c r="C175">
-        <v>6E-06</v>
+        <v>4.2E-05</v>
       </c>
       <c r="D175">
-        <v>1.7E-05</v>
+        <v>0.000245</v>
       </c>
       <c r="F175">
-        <v>-1.844924</v>
+        <v>-4.779133</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>248</v>
+        <v>1247</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C176">
-        <v>0.000134</v>
+        <v>5E-06</v>
       </c>
       <c r="D176">
-        <v>0.000105</v>
+        <v>0.000124</v>
       </c>
       <c r="F176">
-        <v>0.221663</v>
+        <v>-22.139162</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>249</v>
+        <v>1250</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C177">
-        <v>2.1E-05</v>
+        <v>0.000122</v>
       </c>
       <c r="D177">
-        <v>2.7E-05</v>
+        <v>0.000301</v>
       </c>
       <c r="F177">
-        <v>-0.287508</v>
+        <v>-1.463899</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>250</v>
+        <v>1251</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C178">
-        <v>2E-06</v>
+        <v>1.9E-05</v>
       </c>
       <c r="D178">
-        <v>8E-06</v>
+        <v>0.000168</v>
       </c>
       <c r="F178">
-        <v>-2.15026</v>
+        <v>-7.730145</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>252</v>
+        <v>1252</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
       </c>
       <c r="C179">
-        <v>0.000331</v>
+        <v>2E-06</v>
       </c>
       <c r="D179">
-        <v>0.000184</v>
+        <v>0.000101</v>
       </c>
       <c r="F179">
-        <v>0.443554</v>
+        <v>-44.37033</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>253</v>
+        <v>1254</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C180">
-        <v>7.4E-05</v>
+        <v>0.000301</v>
       </c>
       <c r="D180">
-        <v>5.2E-05</v>
+        <v>0.000444</v>
       </c>
       <c r="F180">
-        <v>0.289819</v>
+        <v>-0.477734</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>254</v>
+        <v>1255</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C181">
-        <v>1.1E-05</v>
+        <v>6.7E-05</v>
       </c>
       <c r="D181">
-        <v>1.7E-05</v>
+        <v>0.000258</v>
       </c>
       <c r="F181">
-        <v>-0.540568</v>
+        <v>-2.854095</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>256</v>
+        <v>1256</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C182">
-        <v>0.000528</v>
+        <v>1E-05</v>
       </c>
       <c r="D182">
-        <v>0.000384</v>
+        <v>0.000156</v>
       </c>
       <c r="F182">
-        <v>0.272292</v>
+        <v>-14.945241</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>257</v>
+        <v>1258</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
       </c>
       <c r="C183">
-        <v>0.000176</v>
+        <v>0.00048</v>
       </c>
       <c r="D183">
-        <v>0.000132</v>
+        <v>0.000744</v>
       </c>
       <c r="F183">
-        <v>0.253941</v>
+        <v>-0.550728</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>258</v>
+        <v>1259</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C184">
-        <v>2.7E-05</v>
+        <v>0.00016</v>
       </c>
       <c r="D184">
-        <v>5E-05</v>
+        <v>0.000456</v>
       </c>
       <c r="F184">
-        <v>-0.848035</v>
+        <v>-1.845489</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>259</v>
+        <v>1260</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C185">
-        <v>6E-06</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D185">
-        <v>2.1E-05</v>
+        <v>0.00029</v>
       </c>
       <c r="F185">
-        <v>-2.67219</v>
+        <v>-10.732032</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>260</v>
+        <v>1261</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
       </c>
       <c r="C186">
-        <v>0.000105</v>
+        <v>5E-06</v>
       </c>
       <c r="D186">
-        <v>0.000562</v>
+        <v>0.000175</v>
       </c>
       <c r="F186">
-        <v>-4.360938</v>
+        <v>-33.082677</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>261</v>
+        <v>1262</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
       </c>
       <c r="C187">
-        <v>1E-05</v>
+        <v>9.500000000000001E-05</v>
       </c>
       <c r="D187">
-        <v>0.000113</v>
+        <v>0.000321</v>
       </c>
       <c r="F187">
-        <v>-10.786836</v>
+        <v>-2.362153</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>264</v>
+        <v>1263</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C188">
-        <v>0.000262</v>
+        <v>9E-06</v>
       </c>
       <c r="D188">
-        <v>0.00075</v>
+        <v>0.000127</v>
       </c>
       <c r="F188">
-        <v>-1.864521</v>
+        <v>-13.535138</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>265</v>
+        <v>1266</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C189">
-        <v>9.500000000000001E-05</v>
+        <v>0.000238</v>
       </c>
       <c r="D189">
-        <v>0.00017</v>
+        <v>0.000458</v>
       </c>
       <c r="F189">
-        <v>-0.785801</v>
+        <v>-0.922972</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>266</v>
+        <v>1267</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C190">
-        <v>2E-05</v>
+        <v>8.7E-05</v>
       </c>
       <c r="D190">
-        <v>7.2E-05</v>
+        <v>0.000251</v>
       </c>
       <c r="F190">
-        <v>-2.627288</v>
+        <v>-1.902165</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>267</v>
+        <v>1268</v>
+      </c>
+      <c r="B191" t="s">
+        <v>11</v>
       </c>
       <c r="C191">
-        <v>1E-06</v>
+        <v>1.8E-05</v>
       </c>
       <c r="D191">
-        <v>8E-06</v>
+        <v>0.000129</v>
       </c>
       <c r="F191">
-        <v>-5.711973</v>
+        <v>-6.154879</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>269</v>
+        <v>1269</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
       </c>
       <c r="C192">
-        <v>0.000315</v>
+        <v>1E-06</v>
       </c>
       <c r="D192">
-        <v>0.000436</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F192">
-        <v>-0.384712</v>
+        <v>-62.689952</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>270</v>
+        <v>1271</v>
       </c>
       <c r="B193" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C193">
-        <v>4.4E-05</v>
+        <v>0.000286</v>
       </c>
       <c r="D193">
-        <v>8.3E-05</v>
+        <v>0.000568</v>
       </c>
       <c r="F193">
-        <v>-0.890222</v>
+        <v>-0.982295</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>271</v>
+        <v>1272</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C194">
-        <v>6E-06</v>
+        <v>4E-05</v>
       </c>
       <c r="D194">
-        <v>1.7E-05</v>
+        <v>0.000245</v>
       </c>
       <c r="F194">
-        <v>-1.780267</v>
+        <v>-5.138884</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>274</v>
+        <v>1273</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C195">
-        <v>0.000103</v>
+        <v>5E-06</v>
       </c>
       <c r="D195">
-        <v>0.000105</v>
+        <v>0.000124</v>
       </c>
       <c r="F195">
-        <v>-0.016448</v>
+        <v>-21.613271</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>275</v>
+        <v>1276</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
       </c>
       <c r="C196">
-        <v>1.9E-05</v>
+        <v>9.399999999999999E-05</v>
       </c>
       <c r="D196">
-        <v>2.7E-05</v>
+        <v>0.000301</v>
       </c>
       <c r="F196">
-        <v>-0.471438</v>
+        <v>-2.21766</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>276</v>
+        <v>1277</v>
+      </c>
+      <c r="B197" t="s">
+        <v>11</v>
       </c>
       <c r="C197">
-        <v>3E-06</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D197">
-        <v>8E-06</v>
+        <v>0.000168</v>
       </c>
       <c r="F197">
-        <v>-1.479992</v>
+        <v>-8.977309</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>278</v>
+        <v>1278</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C198">
-        <v>0.000322</v>
+        <v>3E-06</v>
       </c>
       <c r="D198">
-        <v>0.000184</v>
+        <v>0.000101</v>
       </c>
       <c r="F198">
-        <v>0.428107</v>
+        <v>-34.717068</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>279</v>
+        <v>1280</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C199">
-        <v>7.4E-05</v>
+        <v>0.000293</v>
       </c>
       <c r="D199">
-        <v>5.2E-05</v>
+        <v>0.000444</v>
       </c>
       <c r="F199">
-        <v>0.289819</v>
+        <v>-0.518755</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>280</v>
+        <v>1281</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
       </c>
       <c r="C200">
-        <v>1.1E-05</v>
+        <v>6.7E-05</v>
       </c>
       <c r="D200">
-        <v>1.7E-05</v>
+        <v>0.000258</v>
       </c>
       <c r="F200">
-        <v>-0.497775</v>
+        <v>-2.854095</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>282</v>
+        <v>1282</v>
+      </c>
+      <c r="B201" t="s">
+        <v>11</v>
       </c>
       <c r="C201">
-        <v>0.000474</v>
+        <v>1E-05</v>
       </c>
       <c r="D201">
-        <v>0.000384</v>
+        <v>0.000156</v>
       </c>
       <c r="F201">
-        <v>0.190602</v>
+        <v>-14.502318</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>283</v>
+        <v>1284</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C202">
-        <v>0.00017</v>
+        <v>0.000431</v>
       </c>
       <c r="D202">
-        <v>0.000132</v>
+        <v>0.000744</v>
       </c>
       <c r="F202">
-        <v>0.226133</v>
+        <v>-0.724808</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>284</v>
+        <v>1285</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C203">
-        <v>2.8E-05</v>
+        <v>0.000155</v>
       </c>
       <c r="D203">
-        <v>5E-05</v>
+        <v>0.000456</v>
       </c>
       <c r="F203">
-        <v>-0.776956</v>
+        <v>-1.951551</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>285</v>
+        <v>1286</v>
+      </c>
+      <c r="B204" t="s">
+        <v>16</v>
       </c>
       <c r="C204">
-        <v>5E-06</v>
+        <v>2.6E-05</v>
       </c>
       <c r="D204">
-        <v>2.1E-05</v>
+        <v>0.000347</v>
       </c>
       <c r="F204">
-        <v>-3.546521</v>
+        <v>-12.512304</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>1287</v>
+      </c>
+      <c r="B205" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205">
+        <v>4E-06</v>
+      </c>
+      <c r="D205">
+        <v>0.000213</v>
+      </c>
+      <c r="F205">
+        <v>-50.366977</v>
       </c>
     </row>
   </sheetData>

--- a/part3/tables-3/dom_validty_SWB_part-3.xlsx
+++ b/part3/tables-3/dom_validty_SWB_part-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="16">
   <si>
     <t>Test ID</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>['hb', 'Xr', 'wb', 'Parapet', 'parapet', 'hr', 'Wrb']</t>
-  </si>
-  <si>
-    <t>['mmm', 'hb', 'Xr', 'wb', 'delta_x', 'hr', 'Wrb']</t>
   </si>
 </sst>
 </file>
@@ -459,10 +456,10 @@
         <v>0.000834</v>
       </c>
       <c r="D2">
-        <v>0.0005820000000000001</v>
+        <v>0.000481</v>
       </c>
       <c r="F2">
-        <v>0.301823</v>
+        <v>0.42263</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -476,10 +473,10 @@
         <v>0.000247</v>
       </c>
       <c r="D3">
-        <v>0.000222</v>
+        <v>0.000229</v>
       </c>
       <c r="F3">
-        <v>0.103078</v>
+        <v>0.07112300000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -493,10 +490,10 @@
         <v>4.1E-05</v>
       </c>
       <c r="D4">
-        <v>8.500000000000001E-05</v>
+        <v>0.0001</v>
       </c>
       <c r="F4">
-        <v>-1.07844</v>
+        <v>-1.453105</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,10 +507,10 @@
         <v>0.001419</v>
       </c>
       <c r="D5">
-        <v>0.000782</v>
+        <v>0.000834</v>
       </c>
       <c r="F5">
-        <v>0.448731</v>
+        <v>0.411844</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -527,10 +524,10 @@
         <v>0.000647</v>
       </c>
       <c r="D6">
-        <v>0.000407</v>
+        <v>0.000426</v>
       </c>
       <c r="F6">
-        <v>0.371122</v>
+        <v>0.341271</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,10 +541,10 @@
         <v>0.000204</v>
       </c>
       <c r="D7">
-        <v>0.000201</v>
+        <v>0.000287</v>
       </c>
       <c r="F7">
-        <v>0.018907</v>
+        <v>-0.405061</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -561,10 +558,10 @@
         <v>2.7E-05</v>
       </c>
       <c r="D8">
-        <v>9.8E-05</v>
+        <v>0.000129</v>
       </c>
       <c r="F8">
-        <v>-2.569768</v>
+        <v>-3.677874</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -578,10 +575,10 @@
         <v>0.00121</v>
       </c>
       <c r="D9">
-        <v>0.000851</v>
+        <v>0.001067</v>
       </c>
       <c r="F9">
-        <v>0.296847</v>
+        <v>0.117791</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -595,10 +592,10 @@
         <v>0.000387</v>
       </c>
       <c r="D10">
-        <v>0.000362</v>
+        <v>0.000399</v>
       </c>
       <c r="F10">
-        <v>0.065291</v>
+        <v>-0.031351</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -612,10 +609,10 @@
         <v>7.1E-05</v>
       </c>
       <c r="D11">
-        <v>0.000174</v>
+        <v>0.000201</v>
       </c>
       <c r="F11">
-        <v>-1.466324</v>
+        <v>-1.851159</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +626,10 @@
         <v>0.000586</v>
       </c>
       <c r="D12">
-        <v>0.000442</v>
+        <v>0.000483</v>
       </c>
       <c r="F12">
-        <v>0.246098</v>
+        <v>0.17538</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -646,10 +643,10 @@
         <v>2E-05</v>
       </c>
       <c r="D13">
-        <v>0.000132</v>
+        <v>0.000174</v>
       </c>
       <c r="F13">
-        <v>-5.577819</v>
+        <v>-7.668259</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -663,10 +660,10 @@
         <v>0.001194</v>
       </c>
       <c r="D14">
-        <v>0.000634</v>
+        <v>0.00074</v>
       </c>
       <c r="F14">
-        <v>0.469345</v>
+        <v>0.380568</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -680,10 +677,10 @@
         <v>0.000369</v>
       </c>
       <c r="D15">
-        <v>0.000358</v>
+        <v>0.000389</v>
       </c>
       <c r="F15">
-        <v>0.02924</v>
+        <v>-0.054517</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -697,10 +694,10 @@
         <v>7.4E-05</v>
       </c>
       <c r="D16">
-        <v>0.000205</v>
+        <v>0.000246</v>
       </c>
       <c r="F16">
-        <v>-1.756789</v>
+        <v>-2.306205</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -714,10 +711,10 @@
         <v>0.001593</v>
       </c>
       <c r="D17">
-        <v>0.001029</v>
+        <v>0.001221</v>
       </c>
       <c r="F17">
-        <v>0.354197</v>
+        <v>0.233447</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -731,10 +728,10 @@
         <v>0.000633</v>
       </c>
       <c r="D18">
-        <v>0.000621</v>
+        <v>0.000704</v>
       </c>
       <c r="F18">
-        <v>0.01977</v>
+        <v>-0.111193</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -748,10 +745,10 @@
         <v>0.000134</v>
       </c>
       <c r="D19">
-        <v>0.000381</v>
+        <v>0.000423</v>
       </c>
       <c r="F19">
-        <v>-1.838585</v>
+        <v>-2.148126</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -765,10 +762,10 @@
         <v>3.3E-05</v>
       </c>
       <c r="D20">
-        <v>0.00022</v>
+        <v>0.000253</v>
       </c>
       <c r="F20">
-        <v>-5.696382</v>
+        <v>-6.699135</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -782,10 +779,10 @@
         <v>0.001019</v>
       </c>
       <c r="D21">
-        <v>0.000541</v>
+        <v>0.000471</v>
       </c>
       <c r="F21">
-        <v>0.468762</v>
+        <v>0.53805</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -799,10 +796,10 @@
         <v>0.000381</v>
       </c>
       <c r="D22">
-        <v>0.000198</v>
+        <v>0.000148</v>
       </c>
       <c r="F22">
-        <v>0.48051</v>
+        <v>0.611531</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -816,10 +813,10 @@
         <v>0.00194</v>
       </c>
       <c r="D23">
-        <v>0.000877</v>
+        <v>0.001033</v>
       </c>
       <c r="F23">
-        <v>0.548068</v>
+        <v>0.467396</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -833,10 +830,10 @@
         <v>0.001022</v>
       </c>
       <c r="D24">
-        <v>0.000418</v>
+        <v>0.000417</v>
       </c>
       <c r="F24">
-        <v>0.590714</v>
+        <v>0.592472</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -850,10 +847,10 @@
         <v>0.000454</v>
       </c>
       <c r="D25">
-        <v>0.000189</v>
+        <v>0.000128</v>
       </c>
       <c r="F25">
-        <v>0.584194</v>
+        <v>0.718648</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -867,10 +864,10 @@
         <v>0.00019</v>
       </c>
       <c r="D26">
-        <v>8.6E-05</v>
+        <v>5.6E-05</v>
       </c>
       <c r="F26">
-        <v>0.546872</v>
+        <v>0.702511</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -884,10 +881,10 @@
         <v>0.003112</v>
       </c>
       <c r="D27">
-        <v>0.001584</v>
+        <v>0.002223</v>
       </c>
       <c r="F27">
-        <v>0.490786</v>
+        <v>0.285482</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -901,10 +898,10 @@
         <v>0.001427</v>
       </c>
       <c r="D28">
-        <v>0.000697</v>
+        <v>0.000779</v>
       </c>
       <c r="F28">
-        <v>0.511916</v>
+        <v>0.454517</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -918,10 +915,10 @@
         <v>0.000605</v>
       </c>
       <c r="D29">
-        <v>0.000323</v>
+        <v>0.000263</v>
       </c>
       <c r="F29">
-        <v>0.466042</v>
+        <v>0.565011</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -935,10 +932,10 @@
         <v>0.00029</v>
       </c>
       <c r="D30">
-        <v>0.00015</v>
+        <v>9.7E-05</v>
       </c>
       <c r="F30">
-        <v>0.484215</v>
+        <v>0.664535</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -952,10 +949,10 @@
         <v>0.000135</v>
       </c>
       <c r="D31">
-        <v>0.000115</v>
+        <v>8.6E-05</v>
       </c>
       <c r="F31">
-        <v>0.150691</v>
+        <v>0.363715</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -969,10 +966,10 @@
         <v>0.001848</v>
       </c>
       <c r="D32">
-        <v>0.000831</v>
+        <v>0.001005</v>
       </c>
       <c r="F32">
-        <v>0.550424</v>
+        <v>0.456027</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -986,10 +983,10 @@
         <v>0.001168</v>
       </c>
       <c r="D33">
-        <v>0.000428</v>
+        <v>0.000388</v>
       </c>
       <c r="F33">
-        <v>0.633467</v>
+        <v>0.667977</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1003,10 +1000,10 @@
         <v>0.000584</v>
       </c>
       <c r="D34">
-        <v>0.000227</v>
+        <v>0.000154</v>
       </c>
       <c r="F34">
-        <v>0.611473</v>
+        <v>0.737077</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1020,10 +1017,10 @@
         <v>0.00028</v>
       </c>
       <c r="D35">
-        <v>0.000137</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="F35">
-        <v>0.510757</v>
+        <v>0.697201</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1037,10 +1034,10 @@
         <v>0.002662</v>
       </c>
       <c r="D36">
-        <v>0.001128</v>
+        <v>0.001448</v>
       </c>
       <c r="F36">
-        <v>0.5763470000000001</v>
+        <v>0.455983</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1054,10 +1051,10 @@
         <v>0.001671</v>
       </c>
       <c r="D37">
-        <v>0.000628</v>
+        <v>0.0006579999999999999</v>
       </c>
       <c r="F37">
-        <v>0.6239710000000001</v>
+        <v>0.606339</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1071,10 +1068,10 @@
         <v>0.000846</v>
       </c>
       <c r="D38">
-        <v>0.000349</v>
+        <v>0.000277</v>
       </c>
       <c r="F38">
-        <v>0.587114</v>
+        <v>0.673035</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1088,10 +1085,10 @@
         <v>0.000325</v>
       </c>
       <c r="D39">
-        <v>0.000198</v>
+        <v>0.000133</v>
       </c>
       <c r="F39">
-        <v>0.391101</v>
+        <v>0.592361</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1105,10 +1102,10 @@
         <v>0.003527</v>
       </c>
       <c r="D40">
-        <v>0.001741</v>
+        <v>0.002349</v>
       </c>
       <c r="F40">
-        <v>0.5062680000000001</v>
+        <v>0.334063</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1122,10 +1119,10 @@
         <v>0.002229</v>
       </c>
       <c r="D41">
-        <v>0.001043</v>
+        <v>0.001237</v>
       </c>
       <c r="F41">
-        <v>0.532146</v>
+        <v>0.444959</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1139,10 +1136,10 @@
         <v>0.001344</v>
       </c>
       <c r="D42">
-        <v>0.000634</v>
+        <v>0.000641</v>
       </c>
       <c r="F42">
-        <v>0.528386</v>
+        <v>0.522766</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1156,10 +1153,10 @@
         <v>0.000518</v>
       </c>
       <c r="D43">
-        <v>0.000361</v>
+        <v>0.000291</v>
       </c>
       <c r="F43">
-        <v>0.304162</v>
+        <v>0.438865</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1173,10 +1170,10 @@
         <v>9.3E-05</v>
       </c>
       <c r="D44">
-        <v>7.9E-05</v>
+        <v>3.4E-05</v>
       </c>
       <c r="F44">
-        <v>0.151916</v>
+        <v>0.63572</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1190,10 +1187,10 @@
         <v>1.6E-05</v>
       </c>
       <c r="D45">
-        <v>3.5E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="F45">
-        <v>-1.151853</v>
+        <v>0.360845</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1207,10 +1204,10 @@
         <v>0.000233</v>
       </c>
       <c r="D46">
-        <v>0.000169</v>
+        <v>8.3E-05</v>
       </c>
       <c r="F46">
-        <v>0.276232</v>
+        <v>0.64194</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1224,10 +1221,10 @@
         <v>9.6E-05</v>
       </c>
       <c r="D47">
-        <v>8.899999999999999E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F47">
-        <v>0.073425</v>
+        <v>0.7055900000000001</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1241,10 +1238,10 @@
         <v>2.5E-05</v>
       </c>
       <c r="D48">
-        <v>5.3E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="F48">
-        <v>-1.1577</v>
+        <v>0.674661</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1258,10 +1255,10 @@
         <v>8E-06</v>
       </c>
       <c r="D49">
-        <v>3.5E-05</v>
+        <v>7E-06</v>
       </c>
       <c r="F49">
-        <v>-3.386609</v>
+        <v>0.1505</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1275,10 +1272,10 @@
         <v>0.000501</v>
       </c>
       <c r="D50">
-        <v>0.000408</v>
+        <v>0.000285</v>
       </c>
       <c r="F50">
-        <v>0.186432</v>
+        <v>0.43188</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1292,10 +1289,10 @@
         <v>0.000167</v>
       </c>
       <c r="D51">
-        <v>0.000179</v>
+        <v>5.7E-05</v>
       </c>
       <c r="F51">
-        <v>-0.070162</v>
+        <v>0.658556</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1309,10 +1306,10 @@
         <v>4.4E-05</v>
       </c>
       <c r="D52">
-        <v>9.6E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F52">
-        <v>-1.194414</v>
+        <v>0.656663</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1326,10 +1323,10 @@
         <v>1E-05</v>
       </c>
       <c r="D53">
-        <v>5.8E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="F53">
-        <v>-4.843899</v>
+        <v>0.064979</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1343,10 +1340,10 @@
         <v>0.000277</v>
       </c>
       <c r="D54">
-        <v>0.000223</v>
+        <v>9.500000000000001E-05</v>
       </c>
       <c r="F54">
-        <v>0.196818</v>
+        <v>0.658644</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1360,10 +1357,10 @@
         <v>0.000112</v>
       </c>
       <c r="D55">
-        <v>0.00013</v>
+        <v>2.4E-05</v>
       </c>
       <c r="F55">
-        <v>-0.161775</v>
+        <v>0.790344</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1377,10 +1374,10 @@
         <v>3.5E-05</v>
       </c>
       <c r="D56">
-        <v>8.500000000000001E-05</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F56">
-        <v>-1.420481</v>
+        <v>0.6738690000000001</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1394,10 +1391,10 @@
         <v>1E-05</v>
       </c>
       <c r="D57">
-        <v>6.600000000000001E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F57">
-        <v>-5.848563</v>
+        <v>-0.315891</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1411,10 +1408,10 @@
         <v>0.000575</v>
       </c>
       <c r="D58">
-        <v>0.000336</v>
+        <v>0.000156</v>
       </c>
       <c r="F58">
-        <v>0.416185</v>
+        <v>0.729366</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1428,10 +1425,10 @@
         <v>0.000209</v>
       </c>
       <c r="D59">
-        <v>0.000203</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F59">
-        <v>0.024718</v>
+        <v>0.750628</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1445,10 +1442,10 @@
         <v>7.2E-05</v>
       </c>
       <c r="D60">
-        <v>0.000131</v>
+        <v>2E-05</v>
       </c>
       <c r="F60">
-        <v>-0.822558</v>
+        <v>0.724292</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1462,10 +1459,10 @@
         <v>1.1E-05</v>
       </c>
       <c r="D61">
-        <v>9.1E-05</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F61">
-        <v>-7.125107</v>
+        <v>-0.48447</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1479,10 +1476,10 @@
         <v>0.000727</v>
       </c>
       <c r="D62">
-        <v>0.000581</v>
+        <v>0.000501</v>
       </c>
       <c r="F62">
-        <v>0.200518</v>
+        <v>0.311163</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1496,10 +1493,10 @@
         <v>0.000327</v>
       </c>
       <c r="D63">
-        <v>0.000367</v>
+        <v>0.000185</v>
       </c>
       <c r="F63">
-        <v>-0.123921</v>
+        <v>0.435054</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1513,10 +1510,10 @@
         <v>0.000121</v>
       </c>
       <c r="D64">
-        <v>0.000244</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="F64">
-        <v>-1.019156</v>
+        <v>0.459805</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1530,10 +1527,10 @@
         <v>3.5E-05</v>
       </c>
       <c r="D65">
-        <v>0.000159</v>
+        <v>3.5E-05</v>
       </c>
       <c r="F65">
-        <v>-3.586588</v>
+        <v>-0.02624</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1547,10 +1544,10 @@
         <v>6.499999999999999E-05</v>
       </c>
       <c r="D66">
-        <v>7.9E-05</v>
+        <v>3.4E-05</v>
       </c>
       <c r="F66">
-        <v>-0.21156</v>
+        <v>0.479589</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1564,10 +1561,10 @@
         <v>0.00021</v>
       </c>
       <c r="D67">
-        <v>0.000169</v>
+        <v>8.3E-05</v>
       </c>
       <c r="F67">
-        <v>0.195807</v>
+        <v>0.602147</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1581,10 +1578,10 @@
         <v>6.999999999999999E-05</v>
       </c>
       <c r="D68">
-        <v>8.899999999999999E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F68">
-        <v>-0.274051</v>
+        <v>0.595176</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1598,10 +1595,10 @@
         <v>1.1E-05</v>
       </c>
       <c r="D69">
-        <v>5.3E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="F69">
-        <v>-3.854861</v>
+        <v>0.26797</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1615,10 +1612,10 @@
         <v>0.000487</v>
       </c>
       <c r="D70">
-        <v>0.000408</v>
+        <v>0.000285</v>
       </c>
       <c r="F70">
-        <v>0.162141</v>
+        <v>0.414911</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1632,10 +1629,10 @@
         <v>0.000138</v>
       </c>
       <c r="D71">
-        <v>0.000179</v>
+        <v>5.7E-05</v>
       </c>
       <c r="F71">
-        <v>-0.295468</v>
+        <v>0.586666</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1649,10 +1646,10 @@
         <v>2.4E-05</v>
       </c>
       <c r="D72">
-        <v>9.6E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F72">
-        <v>-2.937816</v>
+        <v>0.383885</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1666,10 +1663,10 @@
         <v>2E-06</v>
       </c>
       <c r="D73">
-        <v>5.8E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="F73">
-        <v>-25.715121</v>
+        <v>-3.274422</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1683,10 +1680,10 @@
         <v>0.000223</v>
       </c>
       <c r="D74">
-        <v>0.000223</v>
+        <v>9.500000000000001E-05</v>
       </c>
       <c r="F74">
-        <v>0.002101</v>
+        <v>0.575886</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1700,10 +1697,10 @@
         <v>7.7E-05</v>
       </c>
       <c r="D75">
-        <v>0.00013</v>
+        <v>2.4E-05</v>
       </c>
       <c r="F75">
-        <v>-0.689865</v>
+        <v>0.695041</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1717,10 +1714,10 @@
         <v>1.3E-05</v>
       </c>
       <c r="D76">
-        <v>8.500000000000001E-05</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F76">
-        <v>-5.416509</v>
+        <v>0.135445</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1734,10 +1731,10 @@
         <v>0.000501</v>
       </c>
       <c r="D77">
-        <v>0.000336</v>
+        <v>0.000156</v>
       </c>
       <c r="F77">
-        <v>0.329398</v>
+        <v>0.689132</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1751,10 +1748,10 @@
         <v>0.000163</v>
       </c>
       <c r="D78">
-        <v>0.000203</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F78">
-        <v>-0.248367</v>
+        <v>0.6808</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1768,10 +1765,10 @@
         <v>3.1E-05</v>
       </c>
       <c r="D79">
-        <v>0.000131</v>
+        <v>2E-05</v>
       </c>
       <c r="F79">
-        <v>-3.17576</v>
+        <v>0.368304</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1785,10 +1782,10 @@
         <v>0.000662</v>
       </c>
       <c r="D80">
-        <v>0.000581</v>
+        <v>0.000501</v>
       </c>
       <c r="F80">
-        <v>0.122387</v>
+        <v>0.243842</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1802,10 +1799,10 @@
         <v>0.000271</v>
       </c>
       <c r="D81">
-        <v>0.000367</v>
+        <v>0.000185</v>
       </c>
       <c r="F81">
-        <v>-0.355678</v>
+        <v>0.318558</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1819,10 +1816,10 @@
         <v>8.6E-05</v>
       </c>
       <c r="D82">
-        <v>0.000244</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="F82">
-        <v>-1.826828</v>
+        <v>0.243719</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1836,10 +1833,10 @@
         <v>1.7E-05</v>
       </c>
       <c r="D83">
-        <v>0.000159</v>
+        <v>3.5E-05</v>
       </c>
       <c r="F83">
-        <v>-8.171110000000001</v>
+        <v>-1.052027</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1853,10 +1850,10 @@
         <v>0.000176</v>
       </c>
       <c r="D84">
-        <v>0.000321</v>
+        <v>0.000231</v>
       </c>
       <c r="F84">
-        <v>-0.820542</v>
+        <v>-0.313759</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1870,10 +1867,10 @@
         <v>3.2E-05</v>
       </c>
       <c r="D85">
-        <v>0.000127</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F85">
-        <v>-3.0317</v>
+        <v>-2.096025</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1887,10 +1884,10 @@
         <v>0.0004</v>
       </c>
       <c r="D86">
-        <v>0.000458</v>
+        <v>0.000404</v>
       </c>
       <c r="F86">
-        <v>-0.143531</v>
+        <v>-0.009579000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -1904,10 +1901,10 @@
         <v>0.000163</v>
       </c>
       <c r="D87">
-        <v>0.000251</v>
+        <v>0.000186</v>
       </c>
       <c r="F87">
-        <v>-0.540285</v>
+        <v>-0.137385</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -1921,10 +1918,10 @@
         <v>4.1E-05</v>
       </c>
       <c r="D88">
-        <v>0.000129</v>
+        <v>0.000123</v>
       </c>
       <c r="F88">
-        <v>-2.179963</v>
+        <v>-2.031684</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -1938,10 +1935,10 @@
         <v>5E-06</v>
       </c>
       <c r="D89">
-        <v>6.999999999999999E-05</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F89">
-        <v>-11.738058</v>
+        <v>-8.454039</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -1955,10 +1952,10 @@
         <v>0.0004</v>
       </c>
       <c r="D90">
-        <v>0.000568</v>
+        <v>0.000544</v>
       </c>
       <c r="F90">
-        <v>-0.421079</v>
+        <v>-0.361028</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -1972,10 +1969,10 @@
         <v>0.000109</v>
       </c>
       <c r="D91">
-        <v>0.000245</v>
+        <v>0.000181</v>
       </c>
       <c r="F91">
-        <v>-1.245601</v>
+        <v>-0.660551</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -1989,10 +1986,10 @@
         <v>1.2E-05</v>
       </c>
       <c r="D92">
-        <v>0.000124</v>
+        <v>8.4E-05</v>
       </c>
       <c r="F92">
-        <v>-8.949883</v>
+        <v>-5.731839</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2006,10 +2003,10 @@
         <v>0.000189</v>
       </c>
       <c r="D93">
-        <v>0.000301</v>
+        <v>0.00023</v>
       </c>
       <c r="F93">
-        <v>-0.589132</v>
+        <v>-0.216198</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2023,10 +2020,10 @@
         <v>5.6E-05</v>
       </c>
       <c r="D94">
-        <v>0.000168</v>
+        <v>0.000111</v>
       </c>
       <c r="F94">
-        <v>-1.993889</v>
+        <v>-0.985354</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2040,10 +2037,10 @@
         <v>8E-06</v>
       </c>
       <c r="D95">
-        <v>0.000101</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="F95">
-        <v>-11.434881</v>
+        <v>-8.273250000000001</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2057,10 +2054,10 @@
         <v>0.000467</v>
       </c>
       <c r="D96">
-        <v>0.000444</v>
+        <v>0.000373</v>
       </c>
       <c r="F96">
-        <v>0.048496</v>
+        <v>0.201274</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2074,10 +2071,10 @@
         <v>0.000143</v>
       </c>
       <c r="D97">
-        <v>0.000258</v>
+        <v>0.000178</v>
       </c>
       <c r="F97">
-        <v>-0.802333</v>
+        <v>-0.241138</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2091,10 +2088,10 @@
         <v>2.7E-05</v>
       </c>
       <c r="D98">
-        <v>0.000156</v>
+        <v>0.000111</v>
       </c>
       <c r="F98">
-        <v>-4.813389</v>
+        <v>-3.149237</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2108,10 +2105,10 @@
         <v>0.000644</v>
       </c>
       <c r="D99">
-        <v>0.000744</v>
+        <v>0.000785</v>
       </c>
       <c r="F99">
-        <v>-0.155553</v>
+        <v>-0.219456</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2125,10 +2122,10 @@
         <v>0.000277</v>
       </c>
       <c r="D100">
-        <v>0.000456</v>
+        <v>0.000389</v>
       </c>
       <c r="F100">
-        <v>-0.649709</v>
+        <v>-0.406287</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2142,10 +2139,10 @@
         <v>6.3E-05</v>
       </c>
       <c r="D101">
-        <v>0.00029</v>
+        <v>0.000226</v>
       </c>
       <c r="F101">
-        <v>-3.571979</v>
+        <v>-2.558639</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2159,10 +2156,10 @@
         <v>9E-06</v>
       </c>
       <c r="D102">
-        <v>0.000175</v>
+        <v>0.000139</v>
       </c>
       <c r="F102">
-        <v>-18.692263</v>
+        <v>-14.637787</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2176,10 +2173,10 @@
         <v>0.000195</v>
       </c>
       <c r="D103">
-        <v>0.000321</v>
+        <v>0.000231</v>
       </c>
       <c r="F103">
-        <v>-0.647145</v>
+        <v>-0.188624</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2193,10 +2190,10 @@
         <v>4.1E-05</v>
       </c>
       <c r="D104">
-        <v>0.000127</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F104">
-        <v>-2.115384</v>
+        <v>-1.392336</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2210,10 +2207,10 @@
         <v>0.000426</v>
       </c>
       <c r="D105">
-        <v>0.000458</v>
+        <v>0.000404</v>
       </c>
       <c r="F105">
-        <v>-0.07491200000000001</v>
+        <v>0.051006</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2227,10 +2224,10 @@
         <v>0.000186</v>
       </c>
       <c r="D106">
-        <v>0.000251</v>
+        <v>0.000186</v>
       </c>
       <c r="F106">
-        <v>-0.347742</v>
+        <v>0.004804</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2244,10 +2241,10 @@
         <v>5.6E-05</v>
       </c>
       <c r="D107">
-        <v>0.000129</v>
+        <v>0.000123</v>
       </c>
       <c r="F107">
-        <v>-1.300308</v>
+        <v>-1.193012</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2261,10 +2258,10 @@
         <v>1.3E-05</v>
       </c>
       <c r="D108">
-        <v>6.999999999999999E-05</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F108">
-        <v>-4.478706</v>
+        <v>-3.066189</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2278,10 +2275,10 @@
         <v>0.000436</v>
       </c>
       <c r="D109">
-        <v>0.000568</v>
+        <v>0.000544</v>
       </c>
       <c r="F109">
-        <v>-0.30265</v>
+        <v>-0.247597</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2295,10 +2292,10 @@
         <v>0.000116</v>
       </c>
       <c r="D110">
-        <v>0.000245</v>
+        <v>0.000181</v>
       </c>
       <c r="F110">
-        <v>-1.105242</v>
+        <v>-0.556746</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2312,10 +2309,10 @@
         <v>2E-05</v>
       </c>
       <c r="D111">
-        <v>0.000124</v>
+        <v>8.4E-05</v>
       </c>
       <c r="F111">
-        <v>-5.21865</v>
+        <v>-3.207342</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2329,10 +2326,10 @@
         <v>0.00021</v>
       </c>
       <c r="D112">
-        <v>0.000301</v>
+        <v>0.00023</v>
       </c>
       <c r="F112">
-        <v>-0.435339</v>
+        <v>-0.09848899999999999</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2346,10 +2343,10 @@
         <v>7.4E-05</v>
       </c>
       <c r="D113">
-        <v>0.000168</v>
+        <v>0.000111</v>
       </c>
       <c r="F113">
-        <v>-1.25953</v>
+        <v>-0.498362</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2363,10 +2360,10 @@
         <v>1.4E-05</v>
       </c>
       <c r="D114">
-        <v>0.000101</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="F114">
-        <v>-5.994593</v>
+        <v>-4.216141</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2380,10 +2377,10 @@
         <v>0.00048</v>
       </c>
       <c r="D115">
-        <v>0.000444</v>
+        <v>0.000373</v>
       </c>
       <c r="F115">
-        <v>0.07530199999999999</v>
+        <v>0.223783</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2397,10 +2394,10 @@
         <v>0.000163</v>
       </c>
       <c r="D116">
-        <v>0.000258</v>
+        <v>0.000178</v>
       </c>
       <c r="F116">
-        <v>-0.586047</v>
+        <v>-0.092192</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2414,10 +2411,10 @@
         <v>3.6E-05</v>
       </c>
       <c r="D117">
-        <v>0.000156</v>
+        <v>0.000111</v>
       </c>
       <c r="F117">
-        <v>-3.360027</v>
+        <v>-2.111901</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2431,10 +2428,10 @@
         <v>0.000681</v>
       </c>
       <c r="D118">
-        <v>0.000744</v>
+        <v>0.000785</v>
       </c>
       <c r="F118">
-        <v>-0.09236</v>
+        <v>-0.152768</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2448,10 +2445,10 @@
         <v>0.000282</v>
       </c>
       <c r="D119">
-        <v>0.000456</v>
+        <v>0.000389</v>
       </c>
       <c r="F119">
-        <v>-0.616036</v>
+        <v>-0.377576</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2465,10 +2462,10 @@
         <v>7.499999999999999E-05</v>
       </c>
       <c r="D120">
-        <v>0.00029</v>
+        <v>0.000226</v>
       </c>
       <c r="F120">
-        <v>-2.868587</v>
+        <v>-2.011141</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2482,10 +2479,10 @@
         <v>1.2E-05</v>
       </c>
       <c r="D121">
-        <v>0.000175</v>
+        <v>0.000139</v>
       </c>
       <c r="F121">
-        <v>-13.76916</v>
+        <v>-10.728245</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2499,10 +2496,10 @@
         <v>0.00013</v>
       </c>
       <c r="D122">
-        <v>0.000321</v>
+        <v>0.000231</v>
       </c>
       <c r="F122">
-        <v>-1.470541</v>
+        <v>-0.78261</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2516,10 +2513,10 @@
         <v>1.7E-05</v>
       </c>
       <c r="D123">
-        <v>0.000127</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F123">
-        <v>-6.615339</v>
+        <v>-4.847969</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2533,10 +2530,10 @@
         <v>0.000341</v>
       </c>
       <c r="D124">
-        <v>0.000458</v>
+        <v>0.000404</v>
       </c>
       <c r="F124">
-        <v>-0.343624</v>
+        <v>-0.186247</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2550,10 +2547,10 @@
         <v>0.000124</v>
       </c>
       <c r="D125">
-        <v>0.000251</v>
+        <v>0.000186</v>
       </c>
       <c r="F125">
-        <v>-1.021594</v>
+        <v>-0.492797</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2567,10 +2564,10 @@
         <v>1.5E-05</v>
       </c>
       <c r="D126">
-        <v>0.000129</v>
+        <v>0.000123</v>
       </c>
       <c r="F126">
-        <v>-7.585765</v>
+        <v>-7.185422</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2584,10 +2581,10 @@
         <v>0.000312</v>
       </c>
       <c r="D127">
-        <v>0.000568</v>
+        <v>0.000544</v>
       </c>
       <c r="F127">
-        <v>-0.817636</v>
+        <v>-0.7408439999999999</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2601,10 +2598,10 @@
         <v>4.7E-05</v>
       </c>
       <c r="D128">
-        <v>0.000245</v>
+        <v>0.000181</v>
       </c>
       <c r="F128">
-        <v>-4.238474</v>
+        <v>-2.873714</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2618,10 +2615,10 @@
         <v>4E-06</v>
       </c>
       <c r="D129">
-        <v>0.000124</v>
+        <v>8.4E-05</v>
       </c>
       <c r="F129">
-        <v>-27.427914</v>
+        <v>-18.233658</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2635,10 +2632,10 @@
         <v>0.000102</v>
       </c>
       <c r="D130">
-        <v>0.000301</v>
+        <v>0.00023</v>
       </c>
       <c r="F130">
-        <v>-1.966347</v>
+        <v>-1.270232</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2652,10 +2649,10 @@
         <v>2E-05</v>
       </c>
       <c r="D131">
-        <v>0.000168</v>
+        <v>0.000111</v>
       </c>
       <c r="F131">
-        <v>-7.216552</v>
+        <v>-4.448719</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2669,10 +2666,10 @@
         <v>0.000284</v>
       </c>
       <c r="D132">
-        <v>0.000444</v>
+        <v>0.000373</v>
       </c>
       <c r="F132">
-        <v>-0.563169</v>
+        <v>-0.31219</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2686,10 +2683,10 @@
         <v>5.6E-05</v>
       </c>
       <c r="D133">
-        <v>0.000258</v>
+        <v>0.000178</v>
       </c>
       <c r="F133">
-        <v>-3.624886</v>
+        <v>-2.184853</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2703,10 +2700,10 @@
         <v>5E-06</v>
       </c>
       <c r="D134">
-        <v>0.000156</v>
+        <v>0.000111</v>
       </c>
       <c r="F134">
-        <v>-30.004468</v>
+        <v>-21.129135</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -2720,10 +2717,10 @@
         <v>0.000448</v>
       </c>
       <c r="D135">
-        <v>0.000744</v>
+        <v>0.000785</v>
       </c>
       <c r="F135">
-        <v>-0.661242</v>
+        <v>-0.753126</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -2737,10 +2734,10 @@
         <v>0.000138</v>
       </c>
       <c r="D136">
-        <v>0.000456</v>
+        <v>0.000389</v>
       </c>
       <c r="F136">
-        <v>-2.299392</v>
+        <v>-1.812567</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -2754,10 +2751,10 @@
         <v>1.5E-05</v>
       </c>
       <c r="D137">
-        <v>0.00029</v>
+        <v>0.000226</v>
       </c>
       <c r="F137">
-        <v>-18.553298</v>
+        <v>-14.219566</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2771,10 +2768,10 @@
         <v>0.000121</v>
       </c>
       <c r="D138">
-        <v>0.000321</v>
+        <v>0.000231</v>
       </c>
       <c r="F138">
-        <v>-1.660753</v>
+        <v>-0.92013</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -2788,10 +2785,10 @@
         <v>1E-05</v>
       </c>
       <c r="D139">
-        <v>0.000127</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F139">
-        <v>-12.323788</v>
+        <v>-9.231802999999999</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2805,10 +2802,10 @@
         <v>0.000298</v>
       </c>
       <c r="D140">
-        <v>0.000458</v>
+        <v>0.000404</v>
       </c>
       <c r="F140">
-        <v>-0.5355799999999999</v>
+        <v>-0.355725</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -2822,10 +2819,10 @@
         <v>8.500000000000001E-05</v>
       </c>
       <c r="D141">
-        <v>0.000251</v>
+        <v>0.000186</v>
       </c>
       <c r="F141">
-        <v>-1.940516</v>
+        <v>-1.171375</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -2839,10 +2836,10 @@
         <v>8E-06</v>
       </c>
       <c r="D142">
-        <v>0.000129</v>
+        <v>0.000123</v>
       </c>
       <c r="F142">
-        <v>-16.171622</v>
+        <v>-15.371193</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -2856,10 +2853,10 @@
         <v>0.00024</v>
       </c>
       <c r="D143">
-        <v>0.000568</v>
+        <v>0.000544</v>
       </c>
       <c r="F143">
-        <v>-1.368445</v>
+        <v>-1.268393</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -2873,10 +2870,10 @@
         <v>3.2E-05</v>
       </c>
       <c r="D144">
-        <v>0.000245</v>
+        <v>0.000181</v>
       </c>
       <c r="F144">
-        <v>-6.555526</v>
+        <v>-4.587163</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -2890,10 +2887,10 @@
         <v>6E-06</v>
       </c>
       <c r="D145">
-        <v>0.000124</v>
+        <v>8.4E-05</v>
       </c>
       <c r="F145">
-        <v>-18.899628</v>
+        <v>-12.463744</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -2907,10 +2904,10 @@
         <v>8.1E-05</v>
       </c>
       <c r="D146">
-        <v>0.000301</v>
+        <v>0.00023</v>
       </c>
       <c r="F146">
-        <v>-2.707949</v>
+        <v>-1.837823</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -2924,10 +2921,10 @@
         <v>1.7E-05</v>
       </c>
       <c r="D147">
-        <v>0.000168</v>
+        <v>0.000111</v>
       </c>
       <c r="F147">
-        <v>-8.977283</v>
+        <v>-5.616381</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -2941,10 +2938,10 @@
         <v>0.000244</v>
       </c>
       <c r="D148">
-        <v>0.000444</v>
+        <v>0.000373</v>
       </c>
       <c r="F148">
-        <v>-0.823704</v>
+        <v>-0.530907</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -2958,10 +2955,10 @@
         <v>5E-05</v>
       </c>
       <c r="D149">
-        <v>0.000258</v>
+        <v>0.000178</v>
       </c>
       <c r="F149">
-        <v>-4.138781</v>
+        <v>-2.538757</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -2975,10 +2972,10 @@
         <v>0.000403</v>
       </c>
       <c r="D150">
-        <v>0.000744</v>
+        <v>0.000785</v>
       </c>
       <c r="F150">
-        <v>-0.84378</v>
+        <v>-0.945761</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -2992,10 +2989,10 @@
         <v>9.8E-05</v>
       </c>
       <c r="D151">
-        <v>0.000456</v>
+        <v>0.000389</v>
       </c>
       <c r="F151">
-        <v>-3.657978</v>
+        <v>-2.970714</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3009,10 +3006,10 @@
         <v>1.1E-05</v>
       </c>
       <c r="D152">
-        <v>0.00029</v>
+        <v>0.000226</v>
       </c>
       <c r="F152">
-        <v>-25.663659</v>
+        <v>-19.75406</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3026,10 +3023,10 @@
         <v>0.000148</v>
       </c>
       <c r="D153">
-        <v>0.000321</v>
+        <v>0.000231</v>
       </c>
       <c r="F153">
-        <v>-1.161922</v>
+        <v>-0.560013</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3043,10 +3040,10 @@
         <v>1.7E-05</v>
       </c>
       <c r="D154">
-        <v>0.000127</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F154">
-        <v>-6.26775</v>
+        <v>-4.580707</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3060,10 +3057,10 @@
         <v>0.000366</v>
       </c>
       <c r="D155">
-        <v>0.000458</v>
+        <v>0.000404</v>
       </c>
       <c r="F155">
-        <v>-0.249921</v>
+        <v>-0.103454</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3077,10 +3074,10 @@
         <v>0.000124</v>
       </c>
       <c r="D156">
-        <v>0.000251</v>
+        <v>0.000185</v>
       </c>
       <c r="F156">
-        <v>-1.021655</v>
+        <v>-0.49277</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3094,10 +3091,10 @@
         <v>1.5E-05</v>
       </c>
       <c r="D157">
-        <v>0.000129</v>
+        <v>0.000123</v>
       </c>
       <c r="F157">
-        <v>-7.586084</v>
+        <v>-7.185343</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3111,10 +3108,10 @@
         <v>0.00032</v>
       </c>
       <c r="D158">
-        <v>0.000568</v>
+        <v>0.000544</v>
       </c>
       <c r="F158">
-        <v>-0.776371</v>
+        <v>-0.70125</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3128,10 +3125,10 @@
         <v>5E-05</v>
       </c>
       <c r="D159">
-        <v>0.000245</v>
+        <v>0.000181</v>
       </c>
       <c r="F159">
-        <v>-3.911209</v>
+        <v>-2.631552</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3145,10 +3142,10 @@
         <v>0.000108</v>
       </c>
       <c r="D160">
-        <v>0.000301</v>
+        <v>0.00023</v>
       </c>
       <c r="F160">
-        <v>-1.781019</v>
+        <v>-1.128316</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3162,10 +3159,10 @@
         <v>1.2E-05</v>
       </c>
       <c r="D161">
-        <v>0.000168</v>
+        <v>0.000111</v>
       </c>
       <c r="F161">
-        <v>-12.968517</v>
+        <v>-8.262632</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3179,10 +3176,10 @@
         <v>0.000318</v>
       </c>
       <c r="D162">
-        <v>0.000444</v>
+        <v>0.000373</v>
       </c>
       <c r="F162">
-        <v>-0.396908</v>
+        <v>-0.172577</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3196,10 +3193,10 @@
         <v>5E-05</v>
       </c>
       <c r="D163">
-        <v>0.000258</v>
+        <v>0.000178</v>
       </c>
       <c r="F163">
-        <v>-4.138883</v>
+        <v>-2.538671</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3213,10 +3210,10 @@
         <v>4E-06</v>
       </c>
       <c r="D164">
-        <v>0.000156</v>
+        <v>0.000111</v>
       </c>
       <c r="F164">
-        <v>-33.880802</v>
+        <v>-23.894995</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3230,10 +3227,10 @@
         <v>0.000473</v>
       </c>
       <c r="D165">
-        <v>0.000744</v>
+        <v>0.000785</v>
       </c>
       <c r="F165">
-        <v>-0.573981</v>
+        <v>-0.6609660000000001</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3247,10 +3244,10 @@
         <v>0.000127</v>
       </c>
       <c r="D166">
-        <v>0.000456</v>
+        <v>0.000389</v>
       </c>
       <c r="F166">
-        <v>-2.5994</v>
+        <v>-2.06821</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3264,10 +3261,10 @@
         <v>1.6E-05</v>
       </c>
       <c r="D167">
-        <v>0.00029</v>
+        <v>0.000226</v>
       </c>
       <c r="F167">
-        <v>-17.331529</v>
+        <v>-13.268203</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3281,10 +3278,10 @@
         <v>9.2E-05</v>
       </c>
       <c r="D168">
-        <v>0.000321</v>
+        <v>0.000231</v>
       </c>
       <c r="F168">
-        <v>-2.478089</v>
+        <v>-1.509883</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3298,10 +3295,10 @@
         <v>1E-05</v>
       </c>
       <c r="D169">
-        <v>0.000127</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F169">
-        <v>-12.323876</v>
+        <v>-9.231544</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3315,10 +3312,10 @@
         <v>0.00026</v>
       </c>
       <c r="D170">
-        <v>0.000458</v>
+        <v>0.000404</v>
       </c>
       <c r="F170">
-        <v>-0.760924</v>
+        <v>-0.5546450000000001</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3332,10 +3329,10 @@
         <v>8.8E-05</v>
       </c>
       <c r="D171">
-        <v>0.000251</v>
+        <v>0.000186</v>
       </c>
       <c r="F171">
-        <v>-1.858193</v>
+        <v>-1.110539</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3349,10 +3346,10 @@
         <v>2.1E-05</v>
       </c>
       <c r="D172">
-        <v>0.000129</v>
+        <v>0.000123</v>
       </c>
       <c r="F172">
-        <v>-5.132754</v>
+        <v>-4.846695</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3366,10 +3363,10 @@
         <v>1E-06</v>
       </c>
       <c r="D173">
-        <v>6.999999999999999E-05</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F173">
-        <v>-66.93594899999999</v>
+        <v>-49.420749</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3383,10 +3380,10 @@
         <v>0.000279</v>
       </c>
       <c r="D174">
-        <v>0.000568</v>
+        <v>0.000544</v>
       </c>
       <c r="F174">
-        <v>-1.033879</v>
+        <v>-0.947923</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3400,10 +3397,10 @@
         <v>4.2E-05</v>
       </c>
       <c r="D175">
-        <v>0.000245</v>
+        <v>0.000181</v>
       </c>
       <c r="F175">
-        <v>-4.779133</v>
+        <v>-3.273449</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3417,10 +3414,10 @@
         <v>5E-06</v>
       </c>
       <c r="D176">
-        <v>0.000124</v>
+        <v>8.4E-05</v>
       </c>
       <c r="F176">
-        <v>-22.139162</v>
+        <v>-14.655225</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3434,10 +3431,10 @@
         <v>0.000122</v>
       </c>
       <c r="D177">
-        <v>0.000301</v>
+        <v>0.00023</v>
       </c>
       <c r="F177">
-        <v>-1.463899</v>
+        <v>-0.885663</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3451,10 +3448,10 @@
         <v>1.9E-05</v>
       </c>
       <c r="D178">
-        <v>0.000168</v>
+        <v>0.000111</v>
       </c>
       <c r="F178">
-        <v>-7.730145</v>
+        <v>-4.789223</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3468,10 +3465,10 @@
         <v>2E-06</v>
       </c>
       <c r="D179">
-        <v>0.000101</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="F179">
-        <v>-44.37033</v>
+        <v>-32.834426</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3485,10 +3482,10 @@
         <v>0.000301</v>
       </c>
       <c r="D180">
-        <v>0.000444</v>
+        <v>0.000373</v>
       </c>
       <c r="F180">
-        <v>-0.477734</v>
+        <v>-0.240451</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3502,10 +3499,10 @@
         <v>6.7E-05</v>
       </c>
       <c r="D181">
-        <v>0.000258</v>
+        <v>0.000178</v>
       </c>
       <c r="F181">
-        <v>-2.854095</v>
+        <v>-1.654026</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3519,10 +3516,10 @@
         <v>1E-05</v>
       </c>
       <c r="D182">
-        <v>0.000156</v>
+        <v>0.000111</v>
       </c>
       <c r="F182">
-        <v>-14.945241</v>
+        <v>-10.380668</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -3536,10 +3533,10 @@
         <v>0.00048</v>
       </c>
       <c r="D183">
-        <v>0.000744</v>
+        <v>0.000785</v>
       </c>
       <c r="F183">
-        <v>-0.550728</v>
+        <v>-0.636484</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3553,10 +3550,10 @@
         <v>0.00016</v>
       </c>
       <c r="D184">
-        <v>0.000456</v>
+        <v>0.000389</v>
       </c>
       <c r="F184">
-        <v>-1.845489</v>
+        <v>-1.425613</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -3570,10 +3567,10 @@
         <v>2.5E-05</v>
       </c>
       <c r="D185">
-        <v>0.00029</v>
+        <v>0.000226</v>
       </c>
       <c r="F185">
-        <v>-10.732032</v>
+        <v>-8.131705</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3587,10 +3584,10 @@
         <v>5E-06</v>
       </c>
       <c r="D186">
-        <v>0.000175</v>
+        <v>0.000139</v>
       </c>
       <c r="F186">
-        <v>-33.082677</v>
+        <v>-26.06518</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -3604,10 +3601,10 @@
         <v>9.500000000000001E-05</v>
       </c>
       <c r="D187">
-        <v>0.000321</v>
+        <v>0.000231</v>
       </c>
       <c r="F187">
-        <v>-2.362153</v>
+        <v>-1.42622</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -3621,10 +3618,10 @@
         <v>9E-06</v>
       </c>
       <c r="D188">
-        <v>0.000127</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F188">
-        <v>-13.535138</v>
+        <v>-10.161684</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -3638,10 +3635,10 @@
         <v>0.000238</v>
       </c>
       <c r="D189">
-        <v>0.000458</v>
+        <v>0.000404</v>
       </c>
       <c r="F189">
-        <v>-0.922972</v>
+        <v>-0.6977100000000001</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -3655,10 +3652,10 @@
         <v>8.7E-05</v>
       </c>
       <c r="D190">
-        <v>0.000251</v>
+        <v>0.000186</v>
       </c>
       <c r="F190">
-        <v>-1.902165</v>
+        <v>-1.143009</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -3672,10 +3669,10 @@
         <v>1.8E-05</v>
       </c>
       <c r="D191">
-        <v>0.000129</v>
+        <v>0.000123</v>
       </c>
       <c r="F191">
-        <v>-6.154879</v>
+        <v>-5.821144</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -3689,10 +3686,10 @@
         <v>1E-06</v>
       </c>
       <c r="D192">
-        <v>6.999999999999999E-05</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F192">
-        <v>-62.689952</v>
+        <v>-46.269452</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -3706,10 +3703,10 @@
         <v>0.000286</v>
       </c>
       <c r="D193">
-        <v>0.000568</v>
+        <v>0.000544</v>
       </c>
       <c r="F193">
-        <v>-0.982295</v>
+        <v>-0.89852</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3723,10 +3720,10 @@
         <v>4E-05</v>
       </c>
       <c r="D194">
-        <v>0.000245</v>
+        <v>0.000181</v>
       </c>
       <c r="F194">
-        <v>-5.138884</v>
+        <v>-3.539471</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3740,10 +3737,10 @@
         <v>5E-06</v>
       </c>
       <c r="D195">
-        <v>0.000124</v>
+        <v>8.4E-05</v>
       </c>
       <c r="F195">
-        <v>-21.613271</v>
+        <v>-14.299425</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -3757,10 +3754,10 @@
         <v>9.399999999999999E-05</v>
       </c>
       <c r="D196">
-        <v>0.000301</v>
+        <v>0.00023</v>
       </c>
       <c r="F196">
-        <v>-2.21766</v>
+        <v>-1.462529</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3774,10 +3771,10 @@
         <v>1.7E-05</v>
       </c>
       <c r="D197">
-        <v>0.000168</v>
+        <v>0.000111</v>
       </c>
       <c r="F197">
-        <v>-8.977309</v>
+        <v>-5.616255</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -3791,10 +3788,10 @@
         <v>3E-06</v>
       </c>
       <c r="D198">
-        <v>0.000101</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="F198">
-        <v>-34.717068</v>
+        <v>-25.635612</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -3808,10 +3805,10 @@
         <v>0.000293</v>
       </c>
       <c r="D199">
-        <v>0.000444</v>
+        <v>0.000373</v>
       </c>
       <c r="F199">
-        <v>-0.518755</v>
+        <v>-0.274885</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -3825,10 +3822,10 @@
         <v>6.7E-05</v>
       </c>
       <c r="D200">
-        <v>0.000258</v>
+        <v>0.000178</v>
       </c>
       <c r="F200">
-        <v>-2.854095</v>
+        <v>-1.654026</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -3842,10 +3839,10 @@
         <v>1E-05</v>
       </c>
       <c r="D201">
-        <v>0.000156</v>
+        <v>0.000111</v>
       </c>
       <c r="F201">
-        <v>-14.502318</v>
+        <v>-10.064539</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3859,10 +3856,10 @@
         <v>0.000431</v>
       </c>
       <c r="D202">
-        <v>0.000744</v>
+        <v>0.000785</v>
       </c>
       <c r="F202">
-        <v>-0.724808</v>
+        <v>-0.82019</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -3876,10 +3873,10 @@
         <v>0.000155</v>
       </c>
       <c r="D203">
-        <v>0.000456</v>
+        <v>0.000389</v>
       </c>
       <c r="F203">
-        <v>-1.951551</v>
+        <v>-1.516024</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3887,16 +3884,16 @@
         <v>1286</v>
       </c>
       <c r="B204" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C204">
         <v>2.6E-05</v>
       </c>
       <c r="D204">
-        <v>0.000347</v>
+        <v>0.000226</v>
       </c>
       <c r="F204">
-        <v>-12.512304</v>
+        <v>-7.780486</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -3904,16 +3901,16 @@
         <v>1287</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C205">
         <v>4E-06</v>
       </c>
       <c r="D205">
-        <v>0.000213</v>
+        <v>0.000139</v>
       </c>
       <c r="F205">
-        <v>-50.366977</v>
+        <v>-32.509271</v>
       </c>
     </row>
   </sheetData>
